--- a/Sleep_Kevin_Wong_1_19_19.xlsx
+++ b/Sleep_Kevin_Wong_1_19_19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KevinWong/Documents/Kevin Stuff/Not Work/website/Website Files/Kevin Wong website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D88F3FD-1413-1843-AADA-871F725C2800}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2FC9EF-09B1-614E-ACAA-5F1BC211FF69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sleep" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,11 @@
     <sheet name="Month" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -198,7 +198,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1049,14 +1049,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T714"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D493" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="L502" sqref="L502"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="4" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" style="2" customWidth="1"/>
@@ -1066,7 +1066,7 @@
     <col min="18" max="18" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="3">
         <v>42772</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>11417</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="3">
         <v>42773</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>6566</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="3">
         <v>42774</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>10434</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="3">
         <v>42775</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>9353</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" s="3">
         <v>42776</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>10517</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" s="3">
         <v>42777</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>5430</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" s="3">
         <v>42778</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>4710</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" s="3">
         <v>42779</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>11798</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" s="3">
         <v>42780</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>7417</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" s="3">
         <v>42781</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>9513</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" s="3">
         <v>42782</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>10901</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" s="3">
         <v>42783</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>14667</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" s="3">
         <v>42784</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>4948</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" s="3">
         <v>42785</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>9980</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" s="3">
         <v>42786</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>12754</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" s="3">
         <v>42787</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>7171</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" s="3">
         <v>42788</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>10832</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" s="3">
         <v>42789</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>7428</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" s="3">
         <v>42790</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>12780</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" s="3">
         <v>42791</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>6423</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" s="3">
         <v>42792</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>4971</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" s="3">
         <v>42793</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>9787</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="A24" s="3">
         <v>42794</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>7401</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" s="3">
         <v>42795</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>10253</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" s="3">
         <v>42796</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>8163</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27" s="3">
         <v>42797</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>14147</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" s="3">
         <v>42798</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>4060</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29" s="3">
         <v>42799</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" s="3">
         <v>42800</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>10874</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" s="3">
         <v>42801</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>6460</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32" s="3">
         <v>42802</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>9913</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" s="3">
         <v>42803</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>10691</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" s="3">
         <v>42804</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>9570</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" s="3">
         <v>42805</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>5641</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" s="3">
         <v>42806</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>5834</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37" s="3">
         <v>42807</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>11570</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" s="3">
         <v>42808</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>5707</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" s="3">
         <v>42809</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>9612</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20">
       <c r="A40" s="3">
         <v>42810</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>9572</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" s="3">
         <v>42811</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42" s="3">
         <v>42812</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43" s="3">
         <v>42813</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44" s="3">
         <v>42814</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45" s="3">
         <v>42815</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46" s="3">
         <v>42816</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47" s="3">
         <v>42817</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20">
       <c r="A48" s="3">
         <v>42818</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="A49" s="3">
         <v>42819</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50" s="3">
         <v>42820</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>6765</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51" s="3">
         <v>42821</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>9906</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="A52" s="3">
         <v>42822</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>8184</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="A53" s="3">
         <v>42823</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>8677</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="A54" s="3">
         <v>42824</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>8607</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="A55" s="3">
         <v>42825</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>12248</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20">
       <c r="A56" s="3">
         <v>42826</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>13558</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20">
       <c r="A57" s="3">
         <v>42827</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>8421</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20">
       <c r="A58" s="3">
         <v>42828</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>7129</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20">
       <c r="A59" s="3">
         <v>42829</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>10154</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20">
       <c r="A60" s="3">
         <v>42830</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>8479</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20">
       <c r="A61" s="3">
         <v>42831</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>8315</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20">
       <c r="A62" s="3">
         <v>42832</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>6952</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20">
       <c r="A63" s="3">
         <v>42833</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>7463</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20">
       <c r="A64" s="3">
         <v>42834</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>6607</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20">
       <c r="A65" s="3">
         <v>42835</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>8131</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20">
       <c r="A66" s="3">
         <v>42836</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>6225</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20">
       <c r="A67" s="3">
         <v>42837</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>9788</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20">
       <c r="A68" s="3">
         <v>42838</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>11799</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20">
       <c r="A69" s="3">
         <v>42839</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>10009</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20">
       <c r="A70" s="3">
         <v>42840</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>4452</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20">
       <c r="A71" s="3">
         <v>42841</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>11187</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20">
       <c r="A72" s="3">
         <v>42842</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>11067</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20">
       <c r="A73" s="3">
         <v>42843</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>6412</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20">
       <c r="A74" s="3">
         <v>42844</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>10089</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20">
       <c r="A75" s="3">
         <v>42845</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>11983</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20">
       <c r="A76" s="3">
         <v>42846</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>16218</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20">
       <c r="A77" s="3">
         <v>42847</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>7419</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20">
       <c r="A78" s="3">
         <v>42848</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>8813</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20">
       <c r="A79" s="3">
         <v>42849</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>8712</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20">
       <c r="A80" s="3">
         <v>42850</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>5958</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20">
       <c r="A81" s="3">
         <v>42851</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>7197</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20">
       <c r="A82" s="3">
         <v>42852</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>11889</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20">
       <c r="A83" s="3">
         <v>42853</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>10729</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20">
       <c r="A84" s="3">
         <v>42854</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>5687</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20">
       <c r="A85" s="3">
         <v>42855</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>6991</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20">
       <c r="A86" s="3">
         <v>42856</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>7852</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20">
       <c r="A87" s="3">
         <v>42857</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>6439</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20">
       <c r="A88" s="3">
         <v>42858</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>11687</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20">
       <c r="A89" s="3">
         <v>42859</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>4854</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20">
       <c r="A90" s="3">
         <v>42860</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20">
       <c r="A91" s="3">
         <v>42861</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>4619</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20">
       <c r="A92" s="3">
         <v>42862</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>8779</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20">
       <c r="A93" s="3">
         <v>42863</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>5552</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20">
       <c r="A94" s="3">
         <v>42864</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>12428</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20">
       <c r="A95" s="3">
         <v>42865</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>4576</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20">
       <c r="A96" s="3">
         <v>42866</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>13110</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20">
       <c r="A97" s="3">
         <v>42867</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>15429</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20">
       <c r="A98" s="3">
         <v>42868</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>3223</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20">
       <c r="A99" s="3">
         <v>42869</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20">
       <c r="A100" s="3">
         <v>42870</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>3629</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20">
       <c r="A101" s="3">
         <v>42871</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20">
       <c r="A102" s="3">
         <v>42872</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20">
       <c r="A103" s="3">
         <v>42873</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20">
       <c r="A104" s="3">
         <v>42874</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>11864</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20">
       <c r="A105" s="3">
         <v>42875</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20">
       <c r="A106" s="3">
         <v>42876</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>11524</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20">
       <c r="A107" s="3">
         <v>42877</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20">
       <c r="A108" s="3">
         <v>42878</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20">
       <c r="A109" s="3">
         <v>42879</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20">
       <c r="A110" s="3">
         <v>42880</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>3145</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20">
       <c r="A111" s="3">
         <v>42881</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20">
       <c r="A112" s="3">
         <v>42882</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>9242</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20">
       <c r="A113" s="3">
         <v>42883</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>11384</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20">
       <c r="A114" s="3">
         <v>42884</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20">
       <c r="A115" s="3">
         <v>42885</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>4947</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20">
       <c r="A116" s="3">
         <v>42886</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>9337</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20">
       <c r="A117" s="3">
         <v>42887</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>3464</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20">
       <c r="A118" s="3">
         <v>42888</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20">
       <c r="A119" s="3">
         <v>42889</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20">
       <c r="A120" s="3">
         <v>42890</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20">
       <c r="A121" s="3">
         <v>42891</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>3440</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20">
       <c r="A122" s="3">
         <v>42892</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20">
       <c r="A123" s="3">
         <v>42893</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>3814</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20">
       <c r="A124" s="3">
         <v>42894</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>3927</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20">
       <c r="A125" s="3">
         <v>42895</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20">
       <c r="A126" s="3">
         <v>42896</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>5081</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20">
       <c r="A127" s="3">
         <v>42897</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20">
       <c r="A128" s="3">
         <v>42898</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20">
       <c r="A129" s="3">
         <v>42899</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20">
       <c r="A130" s="3">
         <v>42900</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>8336</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20">
       <c r="A131" s="3">
         <v>42901</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20">
       <c r="A132" s="3">
         <v>42902</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>35958</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20">
       <c r="A133" s="3">
         <v>42903</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>13160</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20">
       <c r="A134" s="3">
         <v>42904</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>11102</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20">
       <c r="A135" s="3">
         <v>42905</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20">
       <c r="A136" s="3">
         <v>42906</v>
       </c>
@@ -10290,7 +10290,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20">
       <c r="A137" s="3">
         <v>42907</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20">
       <c r="A138" s="3">
         <v>42908</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20">
       <c r="A139" s="3">
         <v>42909</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20">
       <c r="A140" s="3">
         <v>42910</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20">
       <c r="A141" s="3">
         <v>42911</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20">
       <c r="A142" s="3">
         <v>42912</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20">
       <c r="A143" s="3">
         <v>42913</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>12468</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20">
       <c r="A144" s="3">
         <v>42914</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20">
       <c r="A145" s="3">
         <v>42915</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>10440</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20">
       <c r="A146" s="3">
         <v>42916</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20">
       <c r="A147" s="3">
         <v>42917</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>13279</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20">
       <c r="A148" s="3">
         <v>42918</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20">
       <c r="A149" s="3">
         <v>42919</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>13132</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20">
       <c r="A150" s="3">
         <v>42920</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20">
       <c r="A151" s="3">
         <v>42921</v>
       </c>
@@ -11337,7 +11337,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20">
       <c r="A152" s="3">
         <v>42922</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20">
       <c r="A153" s="3">
         <v>42923</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20">
       <c r="A154" s="3">
         <v>42924</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>4355</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20">
       <c r="A155" s="3">
         <v>42925</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20">
       <c r="A156" s="3">
         <v>42926</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20">
       <c r="A157" s="3">
         <v>42927</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>4279</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20">
       <c r="A158" s="3">
         <v>42928</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>10203</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20">
       <c r="A159" s="3">
         <v>42929</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>12567</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20">
       <c r="A160" s="3">
         <v>42930</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20">
       <c r="A161" s="3">
         <v>42931</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>15135</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20">
       <c r="A162" s="3">
         <v>42932</v>
       </c>
@@ -12117,7 +12117,7 @@
         <v>11115</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20">
       <c r="A163" s="3">
         <v>42933</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>15016</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20">
       <c r="A164" s="3">
         <v>42934</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20">
       <c r="A165" s="3">
         <v>42935</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20">
       <c r="A166" s="3">
         <v>42936</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20">
       <c r="A167" s="3">
         <v>42937</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20">
       <c r="A168" s="3">
         <v>42938</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20">
       <c r="A169" s="3">
         <v>42939</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>10605</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20">
       <c r="A170" s="3">
         <v>42940</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>3665</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20">
       <c r="A171" s="3">
         <v>42941</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20">
       <c r="A172" s="3">
         <v>42942</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20">
       <c r="A173" s="3">
         <v>42943</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>11359</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20">
       <c r="A174" s="3">
         <v>42944</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>18341</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20">
       <c r="A175" s="3">
         <v>42945</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>12165</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20">
       <c r="A176" s="3">
         <v>42946</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>10910</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20">
       <c r="A177" s="3">
         <v>42947</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20">
       <c r="A178" s="3">
         <v>42948</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>13111</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20">
       <c r="A179" s="3">
         <v>42949</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20">
       <c r="A180" s="3">
         <v>42950</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20">
       <c r="A181" s="3">
         <v>42951</v>
       </c>
@@ -13467,7 +13467,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20">
       <c r="A182" s="3">
         <v>42952</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>10337</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20">
       <c r="A183" s="3">
         <v>42953</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>14613</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20">
       <c r="A184" s="3">
         <v>42954</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20">
       <c r="A185" s="3">
         <v>42955</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>3637</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20">
       <c r="A186" s="3">
         <v>42956</v>
       </c>
@@ -13818,7 +13818,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20">
       <c r="A187" s="3">
         <v>42957</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>13409</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20">
       <c r="A188" s="3">
         <v>42958</v>
       </c>
@@ -13956,7 +13956,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20">
       <c r="A189" s="3">
         <v>42959</v>
       </c>
@@ -14025,7 +14025,7 @@
         <v>11708</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20">
       <c r="A190" s="3">
         <v>42960</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>4110</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20">
       <c r="A191" s="3">
         <v>42961</v>
       </c>
@@ -14166,7 +14166,7 @@
         <v>5865</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20">
       <c r="A192" s="3">
         <v>42962</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>6394</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20">
       <c r="A193" s="3">
         <v>42963</v>
       </c>
@@ -14287,7 +14287,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20">
       <c r="A194" s="3">
         <v>42964</v>
       </c>
@@ -14356,7 +14356,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20">
       <c r="A195" s="3">
         <v>42965</v>
       </c>
@@ -14425,7 +14425,7 @@
         <v>17143</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20">
       <c r="A196" s="3">
         <v>42966</v>
       </c>
@@ -14497,7 +14497,7 @@
         <v>13246</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20">
       <c r="A197" s="3">
         <v>42967</v>
       </c>
@@ -14569,7 +14569,7 @@
         <v>13520</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20">
       <c r="A198" s="3">
         <v>42968</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>14151</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20">
       <c r="A199" s="3">
         <v>42969</v>
       </c>
@@ -14707,7 +14707,7 @@
         <v>4233</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20">
       <c r="A200" s="3">
         <v>42970</v>
       </c>
@@ -14759,7 +14759,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20">
       <c r="A201" s="3">
         <v>42971</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>10839</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20">
       <c r="A202" s="3">
         <v>42972</v>
       </c>
@@ -14900,7 +14900,7 @@
         <v>3435</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20">
       <c r="A203" s="3">
         <v>42973</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>9769</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20">
       <c r="A204" s="3">
         <v>42974</v>
       </c>
@@ -15044,7 +15044,7 @@
         <v>23936</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20">
       <c r="A205" s="3">
         <v>42975</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>9230</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20">
       <c r="A206" s="3">
         <v>42976</v>
       </c>
@@ -15182,7 +15182,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20">
       <c r="A207" s="3">
         <v>42977</v>
       </c>
@@ -15254,7 +15254,7 @@
         <v>12760</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20">
       <c r="A208" s="3">
         <v>42978</v>
       </c>
@@ -15326,7 +15326,7 @@
         <v>6286</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20">
       <c r="A209" s="3">
         <v>42979</v>
       </c>
@@ -15395,7 +15395,7 @@
         <v>14095</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20">
       <c r="A210" s="3">
         <v>42980</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>14132</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20">
       <c r="A211" s="3">
         <v>42981</v>
       </c>
@@ -15536,7 +15536,7 @@
         <v>15620</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20">
       <c r="A212" s="3">
         <v>42982</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>11632</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20">
       <c r="A213" s="3">
         <v>42983</v>
       </c>
@@ -15674,7 +15674,7 @@
         <v>7956</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20">
       <c r="A214" s="3">
         <v>42984</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>7934</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20">
       <c r="A215" s="3">
         <v>42985</v>
       </c>
@@ -15812,7 +15812,7 @@
         <v>9611</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20">
       <c r="A216" s="3">
         <v>42986</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>11632</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20">
       <c r="A217" s="3">
         <v>42987</v>
       </c>
@@ -15953,7 +15953,7 @@
         <v>14156</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20">
       <c r="A218" s="3">
         <v>42988</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>14857</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20">
       <c r="A219" s="3">
         <v>42989</v>
       </c>
@@ -16091,7 +16091,7 @@
         <v>10073</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20">
       <c r="A220" s="3">
         <v>42990</v>
       </c>
@@ -16160,7 +16160,7 @@
         <v>11977</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20">
       <c r="A221" s="3">
         <v>42991</v>
       </c>
@@ -16232,7 +16232,7 @@
         <v>8326</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20">
       <c r="A222" s="3">
         <v>42992</v>
       </c>
@@ -16301,7 +16301,7 @@
         <v>11665</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20">
       <c r="A223" s="3">
         <v>42993</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>9776</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20">
       <c r="A224" s="3">
         <v>42994</v>
       </c>
@@ -16442,7 +16442,7 @@
         <v>14071</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20">
       <c r="A225" s="3">
         <v>42995</v>
       </c>
@@ -16514,7 +16514,7 @@
         <v>9336</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20">
       <c r="A226" s="3">
         <v>42996</v>
       </c>
@@ -16583,7 +16583,7 @@
         <v>7665</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20">
       <c r="A227" s="3">
         <v>42997</v>
       </c>
@@ -16652,7 +16652,7 @@
         <v>8896</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20">
       <c r="A228" s="3">
         <v>42998</v>
       </c>
@@ -16721,7 +16721,7 @@
         <v>8744</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20">
       <c r="A229" s="3">
         <v>42999</v>
       </c>
@@ -16790,7 +16790,7 @@
         <v>10414</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20">
       <c r="A230" s="3">
         <v>43000</v>
       </c>
@@ -16862,7 +16862,7 @@
         <v>7921</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20">
       <c r="A231" s="3">
         <v>43001</v>
       </c>
@@ -16931,7 +16931,7 @@
         <v>7033</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20">
       <c r="A232" s="3">
         <v>43002</v>
       </c>
@@ -17003,7 +17003,7 @@
         <v>7120</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20">
       <c r="A233" s="3">
         <v>43003</v>
       </c>
@@ -17072,7 +17072,7 @@
         <v>8037</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20">
       <c r="A234" s="3">
         <v>43004</v>
       </c>
@@ -17144,7 +17144,7 @@
         <v>11406</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20">
       <c r="A235" s="3">
         <v>43005</v>
       </c>
@@ -17216,7 +17216,7 @@
         <v>10480</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20">
       <c r="A236" s="3">
         <v>43006</v>
       </c>
@@ -17285,7 +17285,7 @@
         <v>6878</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20">
       <c r="A237" s="3">
         <v>43007</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>11277</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20">
       <c r="A238" s="3">
         <v>43008</v>
       </c>
@@ -17426,7 +17426,7 @@
         <v>10233</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20">
       <c r="A239" s="3">
         <v>43009</v>
       </c>
@@ -17495,7 +17495,7 @@
         <v>8714</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20">
       <c r="A240" s="3">
         <v>43010</v>
       </c>
@@ -17564,7 +17564,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20">
       <c r="A241" s="3">
         <v>43011</v>
       </c>
@@ -17633,7 +17633,7 @@
         <v>7963</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20">
       <c r="A242" s="3">
         <v>43012</v>
       </c>
@@ -17705,7 +17705,7 @@
         <v>5537</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20">
       <c r="A243" s="3">
         <v>43013</v>
       </c>
@@ -17774,7 +17774,7 @@
         <v>11435</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20">
       <c r="A244" s="3">
         <v>43014</v>
       </c>
@@ -17826,7 +17826,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20">
       <c r="A245" s="3">
         <v>43015</v>
       </c>
@@ -17878,7 +17878,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20">
       <c r="A246" s="3">
         <v>43016</v>
       </c>
@@ -17950,7 +17950,7 @@
         <v>9341</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20">
       <c r="A247" s="3">
         <v>43017</v>
       </c>
@@ -18019,7 +18019,7 @@
         <v>8825</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20">
       <c r="A248" s="3">
         <v>43018</v>
       </c>
@@ -18088,7 +18088,7 @@
         <v>9213</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20">
       <c r="A249" s="3">
         <v>43019</v>
       </c>
@@ -18157,7 +18157,7 @@
         <v>6168</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20">
       <c r="A250" s="3">
         <v>43020</v>
       </c>
@@ -18226,7 +18226,7 @@
         <v>11070</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20">
       <c r="A251" s="3">
         <v>43021</v>
       </c>
@@ -18295,7 +18295,7 @@
         <v>9125</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20">
       <c r="A252" s="3">
         <v>43022</v>
       </c>
@@ -18367,7 +18367,7 @@
         <v>3578</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20">
       <c r="A253" s="3">
         <v>43023</v>
       </c>
@@ -18439,7 +18439,7 @@
         <v>8934</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20">
       <c r="A254" s="3">
         <v>43024</v>
       </c>
@@ -18508,7 +18508,7 @@
         <v>9732</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20">
       <c r="A255" s="3">
         <v>43025</v>
       </c>
@@ -18580,7 +18580,7 @@
         <v>8349</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20">
       <c r="A256" s="3">
         <v>43026</v>
       </c>
@@ -18632,7 +18632,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20">
       <c r="A257" s="3">
         <v>43027</v>
       </c>
@@ -18701,7 +18701,7 @@
         <v>10203</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20">
       <c r="A258" s="3">
         <v>43028</v>
       </c>
@@ -18770,7 +18770,7 @@
         <v>18703</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20">
       <c r="A259" s="3">
         <v>43029</v>
       </c>
@@ -18842,7 +18842,7 @@
         <v>11097</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20">
       <c r="A260" s="3">
         <v>43030</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>10141</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20">
       <c r="A261" s="3">
         <v>43031</v>
       </c>
@@ -18983,7 +18983,7 @@
         <v>9438</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20">
       <c r="A262" s="3">
         <v>43032</v>
       </c>
@@ -19052,7 +19052,7 @@
         <v>7896</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20">
       <c r="A263" s="3">
         <v>43033</v>
       </c>
@@ -19124,7 +19124,7 @@
         <v>6049</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20">
       <c r="A264" s="3">
         <v>43034</v>
       </c>
@@ -19193,7 +19193,7 @@
         <v>7558</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20">
       <c r="A265" s="3">
         <v>43035</v>
       </c>
@@ -19262,7 +19262,7 @@
         <v>8397</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20">
       <c r="A266" s="3">
         <v>43036</v>
       </c>
@@ -19334,7 +19334,7 @@
         <v>6609</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20">
       <c r="A267" s="3">
         <v>43037</v>
       </c>
@@ -19403,7 +19403,7 @@
         <v>10796</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20">
       <c r="A268" s="3">
         <v>43038</v>
       </c>
@@ -19472,7 +19472,7 @@
         <v>6744</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20">
       <c r="A269" s="3">
         <v>43039</v>
       </c>
@@ -19544,7 +19544,7 @@
         <v>6995</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20">
       <c r="A270" s="3">
         <v>43040</v>
       </c>
@@ -19613,7 +19613,7 @@
         <v>8466</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20">
       <c r="A271" s="3">
         <v>43041</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>7863</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20">
       <c r="A272" s="3">
         <v>43042</v>
       </c>
@@ -19754,7 +19754,7 @@
         <v>10537</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:20">
       <c r="A273" s="3">
         <v>43043</v>
       </c>
@@ -19826,7 +19826,7 @@
         <v>4416</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:20">
       <c r="A274" s="3">
         <v>43044</v>
       </c>
@@ -19898,7 +19898,7 @@
         <v>7114</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:20">
       <c r="A275" s="3">
         <v>43045</v>
       </c>
@@ -19967,7 +19967,7 @@
         <v>9665</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:20">
       <c r="A276" s="3">
         <v>43046</v>
       </c>
@@ -20036,7 +20036,7 @@
         <v>7031</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20">
       <c r="A277" s="3">
         <v>43047</v>
       </c>
@@ -20105,7 +20105,7 @@
         <v>9328</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20">
       <c r="A278" s="3">
         <v>43048</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>11895</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20">
       <c r="A279" s="3">
         <v>43049</v>
       </c>
@@ -20243,7 +20243,7 @@
         <v>12410</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20">
       <c r="A280" s="3">
         <v>43050</v>
       </c>
@@ -20312,7 +20312,7 @@
         <v>7520</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20">
       <c r="A281" s="3">
         <v>43051</v>
       </c>
@@ -20384,7 +20384,7 @@
         <v>7119</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20">
       <c r="A282" s="3">
         <v>43052</v>
       </c>
@@ -20453,7 +20453,7 @@
         <v>12378</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:20">
       <c r="A283" s="3">
         <v>43053</v>
       </c>
@@ -20522,7 +20522,7 @@
         <v>8523</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:20">
       <c r="A284" s="3">
         <v>43054</v>
       </c>
@@ -20591,7 +20591,7 @@
         <v>10211</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:20">
       <c r="A285" s="3">
         <v>43055</v>
       </c>
@@ -20660,7 +20660,7 @@
         <v>11039</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:20">
       <c r="A286" s="3">
         <v>43056</v>
       </c>
@@ -20732,7 +20732,7 @@
         <v>8588</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:20">
       <c r="A287" s="3">
         <v>43057</v>
       </c>
@@ -20804,7 +20804,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20">
       <c r="A288" s="3">
         <v>43058</v>
       </c>
@@ -20876,7 +20876,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:20">
       <c r="A289" s="3">
         <v>43059</v>
       </c>
@@ -20945,7 +20945,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20">
       <c r="A290" s="3">
         <v>43060</v>
       </c>
@@ -21014,7 +21014,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:20">
       <c r="A291" s="3">
         <v>43061</v>
       </c>
@@ -21086,7 +21086,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20">
       <c r="A292" s="3">
         <v>43062</v>
       </c>
@@ -21155,7 +21155,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20">
       <c r="A293" s="3">
         <v>43063</v>
       </c>
@@ -21224,7 +21224,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20">
       <c r="A294" s="3">
         <v>43064</v>
       </c>
@@ -21293,7 +21293,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20">
       <c r="A295" s="3">
         <v>43065</v>
       </c>
@@ -21365,7 +21365,7 @@
         <v>6327</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20">
       <c r="A296" s="3">
         <v>43066</v>
       </c>
@@ -21434,7 +21434,7 @@
         <v>10899</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:20">
       <c r="A297" s="3">
         <v>43067</v>
       </c>
@@ -21506,7 +21506,7 @@
         <v>9190</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20">
       <c r="A298" s="3">
         <v>43068</v>
       </c>
@@ -21575,7 +21575,7 @@
         <v>9355</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:20">
       <c r="A299" s="3">
         <v>43069</v>
       </c>
@@ -21644,7 +21644,7 @@
         <v>10284</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:20">
       <c r="A300" s="3">
         <v>43070</v>
       </c>
@@ -21713,7 +21713,7 @@
         <v>9497</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20">
       <c r="A301" s="3">
         <v>43071</v>
       </c>
@@ -21782,7 +21782,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20">
       <c r="A302" s="3">
         <v>43072</v>
       </c>
@@ -21851,7 +21851,7 @@
         <v>7658</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20">
       <c r="A303" s="3">
         <v>43073</v>
       </c>
@@ -21920,7 +21920,7 @@
         <v>11172</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20">
       <c r="A304" s="3">
         <v>43074</v>
       </c>
@@ -21989,7 +21989,7 @@
         <v>9566</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:20">
       <c r="A305" s="3">
         <v>43075</v>
       </c>
@@ -22058,7 +22058,7 @@
         <v>9982</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:20">
       <c r="A306" s="3">
         <v>43076</v>
       </c>
@@ -22127,7 +22127,7 @@
         <v>13181</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:20">
       <c r="A307" s="3">
         <v>43077</v>
       </c>
@@ -22196,7 +22196,7 @@
         <v>14066</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:20">
       <c r="A308" s="3">
         <v>43078</v>
       </c>
@@ -22265,7 +22265,7 @@
         <v>8301</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:20">
       <c r="A309" s="3">
         <v>43079</v>
       </c>
@@ -22334,7 +22334,7 @@
         <v>14907</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:20">
       <c r="A310" s="3">
         <v>43080</v>
       </c>
@@ -22403,7 +22403,7 @@
         <v>8146</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:20">
       <c r="A311" s="3">
         <v>43081</v>
       </c>
@@ -22472,7 +22472,7 @@
         <v>6488</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:20">
       <c r="A312" s="3">
         <v>43082</v>
       </c>
@@ -22544,7 +22544,7 @@
         <v>7392</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:20">
       <c r="A313" s="3">
         <v>43083</v>
       </c>
@@ -22613,7 +22613,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:20">
       <c r="A314" s="3">
         <v>43084</v>
       </c>
@@ -22682,7 +22682,7 @@
         <v>11930</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:20">
       <c r="A315" s="3">
         <v>43085</v>
       </c>
@@ -22751,7 +22751,7 @@
         <v>6806</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:20">
       <c r="A316" s="3">
         <v>43086</v>
       </c>
@@ -22820,7 +22820,7 @@
         <v>11602</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:20">
       <c r="A317" s="3">
         <v>43087</v>
       </c>
@@ -22889,7 +22889,7 @@
         <v>9671</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:20">
       <c r="A318" s="3">
         <v>43088</v>
       </c>
@@ -22961,7 +22961,7 @@
         <v>9285</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:20">
       <c r="A319" s="3">
         <v>43089</v>
       </c>
@@ -23033,7 +23033,7 @@
         <v>6828</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:20">
       <c r="A320" s="3">
         <v>43090</v>
       </c>
@@ -23105,7 +23105,7 @@
         <v>6486</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:20">
       <c r="A321" s="3">
         <v>43091</v>
       </c>
@@ -23177,7 +23177,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:20">
       <c r="A322" s="3">
         <v>43092</v>
       </c>
@@ -23249,7 +23249,7 @@
         <v>4356</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:20">
       <c r="A323" s="3">
         <v>43093</v>
       </c>
@@ -23321,7 +23321,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:20">
       <c r="A324" s="3">
         <v>43094</v>
       </c>
@@ -23393,7 +23393,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:20">
       <c r="A325" s="3">
         <v>43095</v>
       </c>
@@ -23465,7 +23465,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:20">
       <c r="A326" s="3">
         <v>43096</v>
       </c>
@@ -23534,7 +23534,7 @@
         <v>4502</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:20">
       <c r="A327" s="3">
         <v>43097</v>
       </c>
@@ -23586,7 +23586,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:20">
       <c r="A328" s="3">
         <v>43098</v>
       </c>
@@ -23638,7 +23638,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:20">
       <c r="A329" s="3">
         <v>43099</v>
       </c>
@@ -23690,7 +23690,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:20">
       <c r="A330" s="3">
         <v>43100</v>
       </c>
@@ -23742,7 +23742,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:20">
       <c r="A331" s="3">
         <v>43101</v>
       </c>
@@ -23814,7 +23814,7 @@
         <v>3395</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:20">
       <c r="A332" s="3">
         <v>43102</v>
       </c>
@@ -23886,7 +23886,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:20">
       <c r="A333" s="3">
         <v>43103</v>
       </c>
@@ -23958,7 +23958,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:20">
       <c r="A334" s="3">
         <v>43104</v>
       </c>
@@ -24027,7 +24027,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:20">
       <c r="A335" s="3">
         <v>43105</v>
       </c>
@@ -24096,7 +24096,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:20">
       <c r="A336" s="3">
         <v>43106</v>
       </c>
@@ -24165,7 +24165,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:20">
       <c r="A337" s="3">
         <v>43107</v>
       </c>
@@ -24237,7 +24237,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:20">
       <c r="A338" s="3">
         <v>43108</v>
       </c>
@@ -24306,7 +24306,7 @@
         <v>4099</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:20">
       <c r="A339" s="3">
         <v>43109</v>
       </c>
@@ -24375,7 +24375,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:20">
       <c r="A340" s="3">
         <v>43110</v>
       </c>
@@ -24447,7 +24447,7 @@
         <v>6010</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:20">
       <c r="A341" s="3">
         <v>43111</v>
       </c>
@@ -24516,7 +24516,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:20">
       <c r="A342" s="3">
         <v>43112</v>
       </c>
@@ -24585,7 +24585,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:20">
       <c r="A343" s="3">
         <v>43113</v>
       </c>
@@ -24654,7 +24654,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:20">
       <c r="A344" s="3">
         <v>43114</v>
       </c>
@@ -24726,7 +24726,7 @@
         <v>6155</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:20">
       <c r="A345" s="3">
         <v>43115</v>
       </c>
@@ -24798,7 +24798,7 @@
         <v>4719</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:20">
       <c r="A346" s="3">
         <v>43116</v>
       </c>
@@ -24867,7 +24867,7 @@
         <v>7505</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:20">
       <c r="A347" s="3">
         <v>43117</v>
       </c>
@@ -24939,7 +24939,7 @@
         <v>11710</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:20">
       <c r="A348" s="3">
         <v>43118</v>
       </c>
@@ -25008,7 +25008,7 @@
         <v>9426</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:20">
       <c r="A349" s="3">
         <v>43119</v>
       </c>
@@ -25060,7 +25060,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:20">
       <c r="A350" s="3">
         <v>43120</v>
       </c>
@@ -25132,7 +25132,7 @@
         <v>6507</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:20">
       <c r="A351" s="3">
         <v>43121</v>
       </c>
@@ -25201,7 +25201,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:20">
       <c r="A352" s="3">
         <v>43122</v>
       </c>
@@ -25270,7 +25270,7 @@
         <v>13144</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:20">
       <c r="A353" s="3">
         <v>43123</v>
       </c>
@@ -25339,7 +25339,7 @@
         <v>11556</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:20">
       <c r="A354" s="3">
         <v>43124</v>
       </c>
@@ -25408,7 +25408,7 @@
         <v>8541</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:20">
       <c r="A355" s="3">
         <v>43125</v>
       </c>
@@ -25477,7 +25477,7 @@
         <v>10104</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:20">
       <c r="A356" s="3">
         <v>43126</v>
       </c>
@@ -25546,7 +25546,7 @@
         <v>10190</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:20">
       <c r="A357" s="3">
         <v>43127</v>
       </c>
@@ -25618,7 +25618,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:20">
       <c r="A358" s="3">
         <v>43128</v>
       </c>
@@ -25687,7 +25687,7 @@
         <v>16766</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:20">
       <c r="A359" s="3">
         <v>43129</v>
       </c>
@@ -25756,7 +25756,7 @@
         <v>11334</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:20">
       <c r="A360" s="3">
         <v>43130</v>
       </c>
@@ -25825,7 +25825,7 @@
         <v>12093</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:20">
       <c r="A361" s="3">
         <v>43131</v>
       </c>
@@ -25897,7 +25897,7 @@
         <v>20985</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:20">
       <c r="A362" s="3">
         <v>43132</v>
       </c>
@@ -25966,7 +25966,7 @@
         <v>18313</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:20">
       <c r="A363" s="3">
         <v>43133</v>
       </c>
@@ -26035,7 +26035,7 @@
         <v>15779</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:20">
       <c r="A364" s="3">
         <v>43134</v>
       </c>
@@ -26107,7 +26107,7 @@
         <v>15162</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:20">
       <c r="A365" s="3">
         <v>43135</v>
       </c>
@@ -26176,7 +26176,7 @@
         <v>8929</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:20">
       <c r="A366" s="3">
         <v>43136</v>
       </c>
@@ -26245,7 +26245,7 @@
         <v>16082</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:20">
       <c r="A367" s="3">
         <v>43137</v>
       </c>
@@ -26314,7 +26314,7 @@
         <v>19182</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:20">
       <c r="A368" s="3">
         <v>43138</v>
       </c>
@@ -26383,7 +26383,7 @@
         <v>16424</v>
       </c>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:20">
       <c r="A369" s="3">
         <v>43139</v>
       </c>
@@ -26452,7 +26452,7 @@
         <v>9389</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:20">
       <c r="A370" s="3">
         <v>43140</v>
       </c>
@@ -26521,7 +26521,7 @@
         <v>17288</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:20">
       <c r="A371" s="3">
         <v>43141</v>
       </c>
@@ -26590,7 +26590,7 @@
         <v>8273</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:20">
       <c r="A372" s="3">
         <v>43142</v>
       </c>
@@ -26662,7 +26662,7 @@
         <v>7981</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:20">
       <c r="A373" s="3">
         <v>43143</v>
       </c>
@@ -26731,7 +26731,7 @@
         <v>13894</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:20">
       <c r="A374" s="3">
         <v>43144</v>
       </c>
@@ -26803,7 +26803,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:20">
       <c r="A375" s="3">
         <v>43145</v>
       </c>
@@ -26872,7 +26872,7 @@
         <v>15301</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:20">
       <c r="A376" s="3">
         <v>43146</v>
       </c>
@@ -26944,7 +26944,7 @@
         <v>5655</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:20">
       <c r="A377" s="3">
         <v>43147</v>
       </c>
@@ -27013,7 +27013,7 @@
         <v>12248</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:20">
       <c r="A378" s="3">
         <v>43148</v>
       </c>
@@ -27085,7 +27085,7 @@
         <v>9884</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:20">
       <c r="A379" s="3">
         <v>43149</v>
       </c>
@@ -27157,7 +27157,7 @@
         <v>10157</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:20">
       <c r="A380" s="3">
         <v>43150</v>
       </c>
@@ -27226,7 +27226,7 @@
         <v>11173</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:20">
       <c r="A381" s="3">
         <v>43151</v>
       </c>
@@ -27298,7 +27298,7 @@
         <v>11013</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:20">
       <c r="A382" s="3">
         <v>43152</v>
       </c>
@@ -27367,7 +27367,7 @@
         <v>12461</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:20">
       <c r="A383" s="3">
         <v>43153</v>
       </c>
@@ -27436,7 +27436,7 @@
         <v>10187</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:20">
       <c r="A384" s="3">
         <v>43154</v>
       </c>
@@ -27505,7 +27505,7 @@
         <v>13475</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:20">
       <c r="A385" s="3">
         <v>43155</v>
       </c>
@@ -27574,7 +27574,7 @@
         <v>13144</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:20">
       <c r="A386" s="3">
         <v>43156</v>
       </c>
@@ -27646,7 +27646,7 @@
         <v>8797</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:20">
       <c r="A387" s="3">
         <v>43157</v>
       </c>
@@ -27715,7 +27715,7 @@
         <v>12385</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:20">
       <c r="A388" s="3">
         <v>43158</v>
       </c>
@@ -27787,7 +27787,7 @@
         <v>7950</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:20">
       <c r="A389" s="3">
         <v>43159</v>
       </c>
@@ -27856,7 +27856,7 @@
         <v>12674</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:20">
       <c r="A390" s="3">
         <v>43160</v>
       </c>
@@ -27925,7 +27925,7 @@
         <v>7478</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:20">
       <c r="A391" s="3">
         <v>43161</v>
       </c>
@@ -27994,7 +27994,7 @@
         <v>9062</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:20">
       <c r="A392" s="3">
         <v>43162</v>
       </c>
@@ -28060,7 +28060,7 @@
         <v>5090</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:20">
       <c r="A393" s="3">
         <v>43163</v>
       </c>
@@ -28129,7 +28129,7 @@
         <v>8056</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:20">
       <c r="A394" s="3">
         <v>43164</v>
       </c>
@@ -28198,7 +28198,7 @@
         <v>10034</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:20">
       <c r="A395" s="3">
         <v>43165</v>
       </c>
@@ -28267,7 +28267,7 @@
         <v>11174</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:20">
       <c r="A396" s="3">
         <v>43166</v>
       </c>
@@ -28339,7 +28339,7 @@
         <v>10095</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:20">
       <c r="A397" s="3">
         <v>43167</v>
       </c>
@@ -28411,7 +28411,7 @@
         <v>7385</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:20">
       <c r="A398" s="3">
         <v>43168</v>
       </c>
@@ -28483,7 +28483,7 @@
         <v>11450</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:20">
       <c r="A399" s="3">
         <v>43169</v>
       </c>
@@ -28555,7 +28555,7 @@
         <v>8628</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:20">
       <c r="A400" s="3">
         <v>43170</v>
       </c>
@@ -28624,7 +28624,7 @@
         <v>20902</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:20">
       <c r="A401" s="3">
         <v>43171</v>
       </c>
@@ -28693,7 +28693,7 @@
         <v>11951</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:20">
       <c r="A402" s="3">
         <v>43172</v>
       </c>
@@ -28762,7 +28762,7 @@
         <v>9052</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:20">
       <c r="A403" s="3">
         <v>43173</v>
       </c>
@@ -28834,7 +28834,7 @@
         <v>11649</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:20">
       <c r="A404" s="3">
         <v>43174</v>
       </c>
@@ -28906,7 +28906,7 @@
         <v>7546</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:20">
       <c r="A405" s="3">
         <v>43175</v>
       </c>
@@ -28975,7 +28975,7 @@
         <v>9437</v>
       </c>
     </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:20">
       <c r="A406" s="3">
         <v>43176</v>
       </c>
@@ -29047,7 +29047,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:20">
       <c r="A407" s="3">
         <v>43177</v>
       </c>
@@ -29119,7 +29119,7 @@
         <v>7288</v>
       </c>
     </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:20">
       <c r="A408" s="3">
         <v>43178</v>
       </c>
@@ -29191,7 +29191,7 @@
         <v>11470</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:20">
       <c r="A409" s="3">
         <v>43179</v>
       </c>
@@ -29263,7 +29263,7 @@
         <v>8118</v>
       </c>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:20">
       <c r="A410" s="3">
         <v>43180</v>
       </c>
@@ -29335,7 +29335,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:20">
       <c r="A411" s="3">
         <v>43181</v>
       </c>
@@ -29407,7 +29407,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:20">
       <c r="A412" s="3">
         <v>43182</v>
       </c>
@@ -29479,7 +29479,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:20">
       <c r="A413" s="3">
         <v>43183</v>
       </c>
@@ -29551,7 +29551,7 @@
         <v>6860</v>
       </c>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:20">
       <c r="A414" s="3">
         <v>43184</v>
       </c>
@@ -29620,7 +29620,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:20">
       <c r="A415" s="3">
         <v>43185</v>
       </c>
@@ -29689,7 +29689,7 @@
         <v>13070</v>
       </c>
     </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:20">
       <c r="A416" s="3">
         <v>43186</v>
       </c>
@@ -29758,7 +29758,7 @@
         <v>9140</v>
       </c>
     </row>
-    <row r="417" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:20">
       <c r="A417" s="3">
         <v>43187</v>
       </c>
@@ -29827,7 +29827,7 @@
         <v>9718</v>
       </c>
     </row>
-    <row r="418" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:20">
       <c r="A418" s="3">
         <v>43188</v>
       </c>
@@ -29896,7 +29896,7 @@
         <v>12902</v>
       </c>
     </row>
-    <row r="419" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:20">
       <c r="A419" s="3">
         <v>43189</v>
       </c>
@@ -29965,7 +29965,7 @@
         <v>9158</v>
       </c>
     </row>
-    <row r="420" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:20">
       <c r="A420" s="3">
         <v>43190</v>
       </c>
@@ -30034,7 +30034,7 @@
         <v>7111</v>
       </c>
     </row>
-    <row r="421" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:20">
       <c r="A421" s="3">
         <v>43191</v>
       </c>
@@ -30103,7 +30103,7 @@
         <v>8345</v>
       </c>
     </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:20">
       <c r="A422" s="3">
         <v>43192</v>
       </c>
@@ -30172,7 +30172,7 @@
         <v>14786</v>
       </c>
     </row>
-    <row r="423" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:20">
       <c r="A423" s="3">
         <v>43193</v>
       </c>
@@ -30241,7 +30241,7 @@
         <v>12914</v>
       </c>
     </row>
-    <row r="424" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:20">
       <c r="A424" s="3">
         <v>43194</v>
       </c>
@@ -30313,7 +30313,7 @@
         <v>10325</v>
       </c>
     </row>
-    <row r="425" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:20">
       <c r="A425" s="3">
         <v>43195</v>
       </c>
@@ -30382,7 +30382,7 @@
         <v>8437</v>
       </c>
     </row>
-    <row r="426" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:20">
       <c r="A426" s="3">
         <v>43196</v>
       </c>
@@ -30451,7 +30451,7 @@
         <v>13657</v>
       </c>
     </row>
-    <row r="427" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:20">
       <c r="A427" s="3">
         <v>43197</v>
       </c>
@@ -30520,7 +30520,7 @@
         <v>9671</v>
       </c>
     </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:20">
       <c r="A428" s="3">
         <v>43198</v>
       </c>
@@ -30592,7 +30592,7 @@
         <v>6167</v>
       </c>
     </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:20">
       <c r="A429" s="3">
         <v>43199</v>
       </c>
@@ -30661,7 +30661,7 @@
         <v>10472</v>
       </c>
     </row>
-    <row r="430" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:20">
       <c r="A430" s="3">
         <v>43200</v>
       </c>
@@ -30730,7 +30730,7 @@
         <v>9051</v>
       </c>
     </row>
-    <row r="431" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:20">
       <c r="A431" s="3">
         <v>43201</v>
       </c>
@@ -30799,7 +30799,7 @@
         <v>10866</v>
       </c>
     </row>
-    <row r="432" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:20">
       <c r="A432" s="3">
         <v>43202</v>
       </c>
@@ -30868,7 +30868,7 @@
         <v>9138</v>
       </c>
     </row>
-    <row r="433" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:20">
       <c r="A433" s="3">
         <v>43203</v>
       </c>
@@ -30937,7 +30937,7 @@
         <v>8034</v>
       </c>
     </row>
-    <row r="434" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:20">
       <c r="A434" s="3">
         <v>43204</v>
       </c>
@@ -31006,7 +31006,7 @@
         <v>4616</v>
       </c>
     </row>
-    <row r="435" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:20">
       <c r="A435" s="3">
         <v>43205</v>
       </c>
@@ -31075,7 +31075,7 @@
         <v>7008</v>
       </c>
     </row>
-    <row r="436" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:20">
       <c r="A436" s="3">
         <v>43206</v>
       </c>
@@ -31144,7 +31144,7 @@
         <v>13941</v>
       </c>
     </row>
-    <row r="437" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:20">
       <c r="A437" s="3">
         <v>43207</v>
       </c>
@@ -31216,7 +31216,7 @@
         <v>8440</v>
       </c>
     </row>
-    <row r="438" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:20">
       <c r="A438" s="3">
         <v>43208</v>
       </c>
@@ -31285,7 +31285,7 @@
         <v>10783</v>
       </c>
     </row>
-    <row r="439" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:20">
       <c r="A439" s="3">
         <v>43209</v>
       </c>
@@ -31354,7 +31354,7 @@
         <v>6934</v>
       </c>
     </row>
-    <row r="440" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:20">
       <c r="A440" s="3">
         <v>43210</v>
       </c>
@@ -31423,7 +31423,7 @@
         <v>11658</v>
       </c>
     </row>
-    <row r="441" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:20">
       <c r="A441" s="3">
         <v>43211</v>
       </c>
@@ -31492,7 +31492,7 @@
         <v>7121</v>
       </c>
     </row>
-    <row r="442" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:20">
       <c r="A442" s="3">
         <v>43212</v>
       </c>
@@ -31561,7 +31561,7 @@
         <v>11858</v>
       </c>
     </row>
-    <row r="443" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:20">
       <c r="A443" s="3">
         <v>43213</v>
       </c>
@@ -31630,7 +31630,7 @@
         <v>11476</v>
       </c>
     </row>
-    <row r="444" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:20">
       <c r="A444" s="3">
         <v>43214</v>
       </c>
@@ -31702,7 +31702,7 @@
         <v>11271</v>
       </c>
     </row>
-    <row r="445" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:20">
       <c r="A445" s="3">
         <v>43215</v>
       </c>
@@ -31771,7 +31771,7 @@
         <v>12232</v>
       </c>
     </row>
-    <row r="446" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:20">
       <c r="A446" s="3">
         <v>43216</v>
       </c>
@@ -31837,7 +31837,7 @@
         <v>9964</v>
       </c>
     </row>
-    <row r="447" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:20">
       <c r="A447" s="3">
         <v>43217</v>
       </c>
@@ -31906,7 +31906,7 @@
         <v>8099</v>
       </c>
     </row>
-    <row r="448" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:20">
       <c r="A448" s="3">
         <v>43218</v>
       </c>
@@ -31975,7 +31975,7 @@
         <v>4833</v>
       </c>
     </row>
-    <row r="449" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:20">
       <c r="A449" s="3">
         <v>43219</v>
       </c>
@@ -32044,7 +32044,7 @@
         <v>8894</v>
       </c>
     </row>
-    <row r="450" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:20">
       <c r="A450" s="3">
         <v>43220</v>
       </c>
@@ -32113,7 +32113,7 @@
         <v>11659</v>
       </c>
     </row>
-    <row r="451" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:20">
       <c r="A451" s="3">
         <v>43221</v>
       </c>
@@ -32182,7 +32182,7 @@
         <v>11304</v>
       </c>
     </row>
-    <row r="452" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:20">
       <c r="A452" s="3">
         <v>43222</v>
       </c>
@@ -32251,7 +32251,7 @@
         <v>11182</v>
       </c>
     </row>
-    <row r="453" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:20">
       <c r="A453" s="3">
         <v>43223</v>
       </c>
@@ -32320,7 +32320,7 @@
         <v>7153</v>
       </c>
     </row>
-    <row r="454" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:20">
       <c r="A454" s="3">
         <v>43224</v>
       </c>
@@ -32389,7 +32389,7 @@
         <v>11101</v>
       </c>
     </row>
-    <row r="455" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:20">
       <c r="A455" s="3">
         <v>43225</v>
       </c>
@@ -32458,7 +32458,7 @@
         <v>8964</v>
       </c>
     </row>
-    <row r="456" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:20">
       <c r="A456" s="3">
         <v>43226</v>
       </c>
@@ -32527,7 +32527,7 @@
         <v>10030</v>
       </c>
     </row>
-    <row r="457" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:20">
       <c r="A457" s="3">
         <v>43227</v>
       </c>
@@ -32596,7 +32596,7 @@
         <v>9427</v>
       </c>
     </row>
-    <row r="458" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:20">
       <c r="A458" s="3">
         <v>43228</v>
       </c>
@@ -32665,7 +32665,7 @@
         <v>6154</v>
       </c>
     </row>
-    <row r="459" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:20">
       <c r="A459" s="3">
         <v>43229</v>
       </c>
@@ -32734,7 +32734,7 @@
         <v>8832</v>
       </c>
     </row>
-    <row r="460" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:20">
       <c r="A460" s="3">
         <v>43230</v>
       </c>
@@ -32806,7 +32806,7 @@
         <v>13338</v>
       </c>
     </row>
-    <row r="461" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:20">
       <c r="A461" s="3">
         <v>43231</v>
       </c>
@@ -32875,7 +32875,7 @@
         <v>7387</v>
       </c>
     </row>
-    <row r="462" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:20">
       <c r="A462" s="3">
         <v>43232</v>
       </c>
@@ -32947,7 +32947,7 @@
         <v>3247</v>
       </c>
     </row>
-    <row r="463" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:20">
       <c r="A463" s="3">
         <v>43233</v>
       </c>
@@ -33019,7 +33019,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="464" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:20">
       <c r="A464" s="3">
         <v>43234</v>
       </c>
@@ -33088,7 +33088,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="465" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:20">
       <c r="A465" s="3">
         <v>43235</v>
       </c>
@@ -33157,7 +33157,7 @@
         <v>8805</v>
       </c>
     </row>
-    <row r="466" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:20">
       <c r="A466" s="3">
         <v>43236</v>
       </c>
@@ -33229,7 +33229,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="467" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:20">
       <c r="A467" s="3">
         <v>43237</v>
       </c>
@@ -33301,7 +33301,7 @@
         <v>7484</v>
       </c>
     </row>
-    <row r="468" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:20">
       <c r="A468" s="3">
         <v>43238</v>
       </c>
@@ -33373,7 +33373,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="469" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:20">
       <c r="A469" s="3">
         <v>43239</v>
       </c>
@@ -33445,7 +33445,7 @@
         <v>6378</v>
       </c>
     </row>
-    <row r="470" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:20">
       <c r="A470" s="3">
         <v>43240</v>
       </c>
@@ -33517,7 +33517,7 @@
         <v>3424</v>
       </c>
     </row>
-    <row r="471" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:20">
       <c r="A471" s="3">
         <v>43241</v>
       </c>
@@ -33586,7 +33586,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="472" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:20">
       <c r="A472" s="3">
         <v>43242</v>
       </c>
@@ -33658,7 +33658,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="473" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:20">
       <c r="A473" s="3">
         <v>43243</v>
       </c>
@@ -33727,7 +33727,7 @@
         <v>10603</v>
       </c>
     </row>
-    <row r="474" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:20">
       <c r="A474" s="3">
         <v>43244</v>
       </c>
@@ -33796,7 +33796,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row r="475" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:20">
       <c r="A475" s="3">
         <v>43245</v>
       </c>
@@ -33865,7 +33865,7 @@
         <v>10763</v>
       </c>
     </row>
-    <row r="476" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:20">
       <c r="A476" s="3">
         <v>43246</v>
       </c>
@@ -33934,7 +33934,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="477" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:20">
       <c r="A477" s="3">
         <v>43247</v>
       </c>
@@ -34003,7 +34003,7 @@
         <v>8366</v>
       </c>
     </row>
-    <row r="478" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:20">
       <c r="A478" s="3">
         <v>43248</v>
       </c>
@@ -34075,7 +34075,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="479" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:20">
       <c r="A479" s="3">
         <v>43249</v>
       </c>
@@ -34147,7 +34147,7 @@
         <v>3074</v>
       </c>
     </row>
-    <row r="480" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:20">
       <c r="A480" s="3">
         <v>43250</v>
       </c>
@@ -34219,7 +34219,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:20">
       <c r="A481" s="3">
         <v>43251</v>
       </c>
@@ -34291,7 +34291,7 @@
         <v>8555</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:20">
       <c r="A482" s="3">
         <v>43252</v>
       </c>
@@ -34363,7 +34363,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:20">
       <c r="A483" s="3">
         <v>43253</v>
       </c>
@@ -34432,7 +34432,7 @@
         <v>7082</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:20">
       <c r="A484" s="3">
         <v>43254</v>
       </c>
@@ -34504,7 +34504,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:20">
       <c r="A485" s="3">
         <v>43255</v>
       </c>
@@ -34576,7 +34576,7 @@
         <v>8322</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:20">
       <c r="A486" s="3">
         <v>43256</v>
       </c>
@@ -34645,7 +34645,7 @@
         <v>2954</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:20">
       <c r="A487" s="3">
         <v>43257</v>
       </c>
@@ -34714,7 +34714,7 @@
         <v>9301</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:20">
       <c r="A488" s="3">
         <v>43258</v>
       </c>
@@ -34783,7 +34783,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:20">
       <c r="A489" s="3">
         <v>43259</v>
       </c>
@@ -34855,7 +34855,7 @@
         <v>11496</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:20">
       <c r="A490" s="3">
         <v>43260</v>
       </c>
@@ -34927,7 +34927,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:20">
       <c r="A491" s="3">
         <v>43261</v>
       </c>
@@ -34999,7 +34999,7 @@
         <v>12288</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:20">
       <c r="A492" s="3">
         <v>43262</v>
       </c>
@@ -35071,7 +35071,7 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:20">
       <c r="A493" s="3">
         <v>43263</v>
       </c>
@@ -35140,7 +35140,7 @@
         <v>9395</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:20">
       <c r="A494" s="3">
         <v>43264</v>
       </c>
@@ -35209,7 +35209,7 @@
         <v>8652</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:20">
       <c r="A495" s="3">
         <v>43265</v>
       </c>
@@ -35278,7 +35278,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:20">
       <c r="A496" s="3">
         <v>43266</v>
       </c>
@@ -35347,7 +35347,7 @@
         <v>13101</v>
       </c>
     </row>
-    <row r="497" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:20">
       <c r="A497" s="3">
         <v>43267</v>
       </c>
@@ -35416,7 +35416,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="498" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:20">
       <c r="A498" s="3">
         <v>43268</v>
       </c>
@@ -35488,7 +35488,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="499" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:20">
       <c r="A499" s="3">
         <v>43269</v>
       </c>
@@ -35557,7 +35557,7 @@
         <v>9461</v>
       </c>
     </row>
-    <row r="500" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:20">
       <c r="A500" s="3">
         <v>43270</v>
       </c>
@@ -35629,7 +35629,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="501" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:20">
       <c r="A501" s="3">
         <v>43271</v>
       </c>
@@ -35701,7 +35701,7 @@
         <v>8804</v>
       </c>
     </row>
-    <row r="502" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:20">
       <c r="A502" s="3">
         <v>43272</v>
       </c>
@@ -35773,7 +35773,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="503" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:20">
       <c r="A503" s="3">
         <v>43273</v>
       </c>
@@ -35845,7 +35845,7 @@
         <v>9034</v>
       </c>
     </row>
-    <row r="504" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:20">
       <c r="A504" s="3">
         <v>43274</v>
       </c>
@@ -35914,7 +35914,7 @@
         <v>10485</v>
       </c>
     </row>
-    <row r="505" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:20">
       <c r="A505" s="3">
         <v>43275</v>
       </c>
@@ -35986,7 +35986,7 @@
         <v>6891</v>
       </c>
     </row>
-    <row r="506" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:20">
       <c r="A506" s="3">
         <v>43276</v>
       </c>
@@ -36058,7 +36058,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="507" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:20">
       <c r="A507" s="3">
         <v>43277</v>
       </c>
@@ -36130,7 +36130,7 @@
         <v>8622</v>
       </c>
     </row>
-    <row r="508" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:20">
       <c r="A508" s="3">
         <v>43278</v>
       </c>
@@ -36199,7 +36199,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="509" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:20">
       <c r="A509" s="3">
         <v>43279</v>
       </c>
@@ -36268,7 +36268,7 @@
         <v>9415</v>
       </c>
     </row>
-    <row r="510" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:20">
       <c r="A510" s="3">
         <v>43280</v>
       </c>
@@ -36337,7 +36337,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="511" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:20">
       <c r="A511" s="3">
         <v>43281</v>
       </c>
@@ -36406,7 +36406,7 @@
         <v>7099</v>
       </c>
     </row>
-    <row r="512" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:20">
       <c r="A512" s="3">
         <v>43282</v>
       </c>
@@ -36475,7 +36475,7 @@
         <v>10130</v>
       </c>
     </row>
-    <row r="513" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:20">
       <c r="A513" s="3">
         <v>43283</v>
       </c>
@@ -36544,7 +36544,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="514" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:20">
       <c r="A514" s="3">
         <v>43284</v>
       </c>
@@ -36613,7 +36613,7 @@
         <v>7321</v>
       </c>
     </row>
-    <row r="515" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:20">
       <c r="A515" s="3">
         <v>43285</v>
       </c>
@@ -36682,7 +36682,7 @@
         <v>4527</v>
       </c>
     </row>
-    <row r="516" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:20">
       <c r="A516" s="3">
         <v>43286</v>
       </c>
@@ -36754,7 +36754,7 @@
         <v>3026</v>
       </c>
     </row>
-    <row r="517" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:20">
       <c r="A517" s="3">
         <v>43287</v>
       </c>
@@ -36823,7 +36823,7 @@
         <v>10579</v>
       </c>
     </row>
-    <row r="518" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:20">
       <c r="A518" s="3">
         <v>43288</v>
       </c>
@@ -36892,7 +36892,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="519" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:20">
       <c r="A519" s="3">
         <v>43289</v>
       </c>
@@ -36961,7 +36961,7 @@
         <v>11076</v>
       </c>
     </row>
-    <row r="520" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:20">
       <c r="A520" s="3">
         <v>43290</v>
       </c>
@@ -37030,7 +37030,7 @@
         <v>4754</v>
       </c>
     </row>
-    <row r="521" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:20">
       <c r="A521" s="3">
         <v>43291</v>
       </c>
@@ -37099,7 +37099,7 @@
         <v>7865</v>
       </c>
     </row>
-    <row r="522" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:20">
       <c r="A522" s="3">
         <v>43292</v>
       </c>
@@ -37171,7 +37171,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="523" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:20">
       <c r="A523" s="3">
         <v>43293</v>
       </c>
@@ -37243,7 +37243,7 @@
         <v>8143</v>
       </c>
     </row>
-    <row r="524" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:20">
       <c r="A524" s="3">
         <v>43294</v>
       </c>
@@ -37295,7 +37295,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:20">
       <c r="A525" s="3">
         <v>43295</v>
       </c>
@@ -37367,7 +37367,7 @@
         <v>8866</v>
       </c>
     </row>
-    <row r="526" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:20">
       <c r="A526" s="3">
         <v>43296</v>
       </c>
@@ -37439,7 +37439,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="527" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:20">
       <c r="A527" s="3">
         <v>43297</v>
       </c>
@@ -37508,7 +37508,7 @@
         <v>6685</v>
       </c>
     </row>
-    <row r="528" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:20">
       <c r="A528" s="3">
         <v>43298</v>
       </c>
@@ -37577,7 +37577,7 @@
         <v>4177</v>
       </c>
     </row>
-    <row r="529" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:20">
       <c r="A529" s="3">
         <v>43299</v>
       </c>
@@ -37646,7 +37646,7 @@
         <v>8422</v>
       </c>
     </row>
-    <row r="530" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:20">
       <c r="A530" s="3">
         <v>43300</v>
       </c>
@@ -37715,7 +37715,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="531" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:20">
       <c r="A531" s="3">
         <v>43301</v>
       </c>
@@ -37784,7 +37784,7 @@
         <v>9439</v>
       </c>
     </row>
-    <row r="532" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:20">
       <c r="A532" s="3">
         <v>43302</v>
       </c>
@@ -37853,7 +37853,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="533" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:20">
       <c r="A533" s="3">
         <v>43303</v>
       </c>
@@ -37922,7 +37922,7 @@
         <v>10756</v>
       </c>
     </row>
-    <row r="534" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:20">
       <c r="A534" s="3">
         <v>43304</v>
       </c>
@@ -37991,7 +37991,7 @@
         <v>4463</v>
       </c>
     </row>
-    <row r="535" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:20">
       <c r="A535" s="3">
         <v>43305</v>
       </c>
@@ -38060,7 +38060,7 @@
         <v>10578</v>
       </c>
     </row>
-    <row r="536" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:20">
       <c r="A536" s="3">
         <v>43306</v>
       </c>
@@ -38129,7 +38129,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="537" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:20">
       <c r="A537" s="3">
         <v>43307</v>
       </c>
@@ -38201,7 +38201,7 @@
         <v>7801</v>
       </c>
     </row>
-    <row r="538" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:20">
       <c r="A538" s="3">
         <v>43308</v>
       </c>
@@ -38270,7 +38270,7 @@
         <v>9112</v>
       </c>
     </row>
-    <row r="539" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:20">
       <c r="A539" s="3">
         <v>43309</v>
       </c>
@@ -38342,7 +38342,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="540" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:20">
       <c r="A540" s="3">
         <v>43310</v>
       </c>
@@ -38414,7 +38414,7 @@
         <v>7365</v>
       </c>
     </row>
-    <row r="541" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:20">
       <c r="A541" s="3">
         <v>43311</v>
       </c>
@@ -38483,7 +38483,7 @@
         <v>3271</v>
       </c>
     </row>
-    <row r="542" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:20">
       <c r="A542" s="3">
         <v>43312</v>
       </c>
@@ -38555,7 +38555,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="543" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:20">
       <c r="A543" s="3">
         <v>43313</v>
       </c>
@@ -38624,7 +38624,7 @@
         <v>5536</v>
       </c>
     </row>
-    <row r="544" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:20">
       <c r="A544" s="3">
         <v>43314</v>
       </c>
@@ -38693,7 +38693,7 @@
         <v>8919</v>
       </c>
     </row>
-    <row r="545" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:20">
       <c r="A545" s="3">
         <v>43315</v>
       </c>
@@ -38765,7 +38765,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="546" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:20">
       <c r="A546" s="3">
         <v>43316</v>
       </c>
@@ -38837,7 +38837,7 @@
         <v>8555</v>
       </c>
     </row>
-    <row r="547" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:20">
       <c r="A547" s="3">
         <v>43317</v>
       </c>
@@ -38906,7 +38906,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="548" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:20">
       <c r="A548" s="3">
         <v>43318</v>
       </c>
@@ -38978,7 +38978,7 @@
         <v>6145</v>
       </c>
     </row>
-    <row r="549" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:20">
       <c r="A549" s="3">
         <v>43319</v>
       </c>
@@ -39047,7 +39047,7 @@
         <v>3057</v>
       </c>
     </row>
-    <row r="550" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:20">
       <c r="A550" s="3">
         <v>43320</v>
       </c>
@@ -39099,7 +39099,7 @@
         <v/>
       </c>
     </row>
-    <row r="551" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:20">
       <c r="A551" s="3">
         <v>43321</v>
       </c>
@@ -39168,7 +39168,7 @@
         <v>3337</v>
       </c>
     </row>
-    <row r="552" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:20">
       <c r="A552" s="3">
         <v>43322</v>
       </c>
@@ -39237,7 +39237,7 @@
         <v>10305</v>
       </c>
     </row>
-    <row r="553" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:20">
       <c r="A553" s="3">
         <v>43323</v>
       </c>
@@ -39306,7 +39306,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="554" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:20">
       <c r="A554" s="3">
         <v>43324</v>
       </c>
@@ -39378,7 +39378,7 @@
         <v>13438</v>
       </c>
     </row>
-    <row r="555" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:20">
       <c r="A555" s="3">
         <v>43325</v>
       </c>
@@ -39447,7 +39447,7 @@
         <v>8699</v>
       </c>
     </row>
-    <row r="556" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:20">
       <c r="A556" s="3">
         <v>43326</v>
       </c>
@@ -39516,7 +39516,7 @@
         <v>3915</v>
       </c>
     </row>
-    <row r="557" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:20">
       <c r="A557" s="3">
         <v>43327</v>
       </c>
@@ -39585,7 +39585,7 @@
         <v>6275</v>
       </c>
     </row>
-    <row r="558" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:20">
       <c r="A558" s="3">
         <v>43328</v>
       </c>
@@ -39654,7 +39654,7 @@
         <v>8987</v>
       </c>
     </row>
-    <row r="559" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:20">
       <c r="A559" s="3">
         <v>43329</v>
       </c>
@@ -39723,7 +39723,7 @@
         <v>9781</v>
       </c>
     </row>
-    <row r="560" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:20">
       <c r="A560" s="3">
         <v>43330</v>
       </c>
@@ -39792,7 +39792,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="561" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:20">
       <c r="A561" s="3">
         <v>43331</v>
       </c>
@@ -39864,7 +39864,7 @@
         <v>6516</v>
       </c>
     </row>
-    <row r="562" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:20">
       <c r="A562" s="3">
         <v>43332</v>
       </c>
@@ -39933,7 +39933,7 @@
         <v>14499</v>
       </c>
     </row>
-    <row r="563" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:20">
       <c r="A563" s="3">
         <v>43333</v>
       </c>
@@ -40002,7 +40002,7 @@
         <v>5374</v>
       </c>
     </row>
-    <row r="564" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:20">
       <c r="A564" s="3">
         <v>43334</v>
       </c>
@@ -40071,7 +40071,7 @@
         <v>12770</v>
       </c>
     </row>
-    <row r="565" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:20">
       <c r="A565" s="3">
         <v>43335</v>
       </c>
@@ -40140,7 +40140,7 @@
         <v>12468</v>
       </c>
     </row>
-    <row r="566" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:20">
       <c r="A566" s="3">
         <v>43336</v>
       </c>
@@ -40209,7 +40209,7 @@
         <v>3246</v>
       </c>
     </row>
-    <row r="567" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:20">
       <c r="A567" s="3">
         <v>43337</v>
       </c>
@@ -40281,7 +40281,7 @@
         <v>10726</v>
       </c>
     </row>
-    <row r="568" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:20">
       <c r="A568" s="3">
         <v>43338</v>
       </c>
@@ -40350,7 +40350,7 @@
         <v>12079</v>
       </c>
     </row>
-    <row r="569" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:20">
       <c r="A569" s="3">
         <v>43339</v>
       </c>
@@ -40422,7 +40422,7 @@
         <v>11699</v>
       </c>
     </row>
-    <row r="570" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:20">
       <c r="A570" s="3">
         <v>43340</v>
       </c>
@@ -40494,7 +40494,7 @@
         <v>8165</v>
       </c>
     </row>
-    <row r="571" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:20">
       <c r="A571" s="3">
         <v>43341</v>
       </c>
@@ -40563,7 +40563,7 @@
         <v>13686</v>
       </c>
     </row>
-    <row r="572" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:20">
       <c r="A572" s="3">
         <v>43342</v>
       </c>
@@ -40635,7 +40635,7 @@
         <v>6964</v>
       </c>
     </row>
-    <row r="573" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:20">
       <c r="A573" s="3">
         <v>43343</v>
       </c>
@@ -40704,7 +40704,7 @@
         <v>12539</v>
       </c>
     </row>
-    <row r="574" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:20">
       <c r="A574" s="3">
         <v>43344</v>
       </c>
@@ -40776,7 +40776,7 @@
         <v>3128</v>
       </c>
     </row>
-    <row r="575" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:20">
       <c r="A575" s="3">
         <v>43345</v>
       </c>
@@ -40845,7 +40845,7 @@
         <v>6451</v>
       </c>
     </row>
-    <row r="576" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:20">
       <c r="A576" s="3">
         <v>43346</v>
       </c>
@@ -40914,7 +40914,7 @@
         <v>10354</v>
       </c>
     </row>
-    <row r="577" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:20">
       <c r="A577" s="3">
         <v>43347</v>
       </c>
@@ -40983,7 +40983,7 @@
         <v>9267</v>
       </c>
     </row>
-    <row r="578" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:20">
       <c r="A578" s="3">
         <v>43348</v>
       </c>
@@ -41052,7 +41052,7 @@
         <v>9183</v>
       </c>
     </row>
-    <row r="579" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:20">
       <c r="A579" s="3">
         <v>43349</v>
       </c>
@@ -41124,7 +41124,7 @@
         <v>5457</v>
       </c>
     </row>
-    <row r="580" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:20">
       <c r="A580" s="3">
         <v>43350</v>
       </c>
@@ -41196,7 +41196,7 @@
         <v>13590</v>
       </c>
     </row>
-    <row r="581" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:20">
       <c r="A581" s="3">
         <v>43351</v>
       </c>
@@ -41265,7 +41265,7 @@
         <v>5173</v>
       </c>
     </row>
-    <row r="582" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:20">
       <c r="A582" s="3">
         <v>43352</v>
       </c>
@@ -41334,7 +41334,7 @@
         <v>14303</v>
       </c>
     </row>
-    <row r="583" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:20">
       <c r="A583" s="3">
         <v>43353</v>
       </c>
@@ -41403,7 +41403,7 @@
         <v>11677</v>
       </c>
     </row>
-    <row r="584" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:20">
       <c r="A584" s="3">
         <v>43354</v>
       </c>
@@ -41472,7 +41472,7 @@
         <v>6542</v>
       </c>
     </row>
-    <row r="585" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:20">
       <c r="A585" s="3">
         <v>43355</v>
       </c>
@@ -41541,7 +41541,7 @@
         <v>10953</v>
       </c>
     </row>
-    <row r="586" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:20">
       <c r="A586" s="3">
         <v>43356</v>
       </c>
@@ -41610,7 +41610,7 @@
         <v>6568</v>
       </c>
     </row>
-    <row r="587" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:20">
       <c r="A587" s="3">
         <v>43357</v>
       </c>
@@ -41679,7 +41679,7 @@
         <v>9829</v>
       </c>
     </row>
-    <row r="588" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:20">
       <c r="A588" s="3">
         <v>43358</v>
       </c>
@@ -41748,7 +41748,7 @@
         <v>5291</v>
       </c>
     </row>
-    <row r="589" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:20">
       <c r="A589" s="3">
         <v>43359</v>
       </c>
@@ -41817,7 +41817,7 @@
         <v>6548</v>
       </c>
     </row>
-    <row r="590" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:20">
       <c r="A590" s="3">
         <v>43360</v>
       </c>
@@ -41886,7 +41886,7 @@
         <v>9138</v>
       </c>
     </row>
-    <row r="591" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:20">
       <c r="A591" s="3">
         <v>43361</v>
       </c>
@@ -41955,7 +41955,7 @@
         <v>7932</v>
       </c>
     </row>
-    <row r="592" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:20">
       <c r="A592" s="3">
         <v>43362</v>
       </c>
@@ -42024,7 +42024,7 @@
         <v>9896</v>
       </c>
     </row>
-    <row r="593" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:20">
       <c r="A593" s="3">
         <v>43363</v>
       </c>
@@ -42093,7 +42093,7 @@
         <v>12720</v>
       </c>
     </row>
-    <row r="594" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:20">
       <c r="A594" s="3">
         <v>43364</v>
       </c>
@@ -42165,7 +42165,7 @@
         <v>14511</v>
       </c>
     </row>
-    <row r="595" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:20">
       <c r="A595" s="3">
         <v>43365</v>
       </c>
@@ -42234,7 +42234,7 @@
         <v>7248</v>
       </c>
     </row>
-    <row r="596" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:20">
       <c r="A596" s="3">
         <v>43366</v>
       </c>
@@ -42303,7 +42303,7 @@
         <v>5852</v>
       </c>
     </row>
-    <row r="597" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:20">
       <c r="A597" s="3">
         <v>43367</v>
       </c>
@@ -42372,7 +42372,7 @@
         <v>10171</v>
       </c>
     </row>
-    <row r="598" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:20">
       <c r="A598" s="3">
         <v>43368</v>
       </c>
@@ -42441,7 +42441,7 @@
         <v>9338</v>
       </c>
     </row>
-    <row r="599" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:20">
       <c r="A599" s="3">
         <v>43369</v>
       </c>
@@ -42510,7 +42510,7 @@
         <v>8485</v>
       </c>
     </row>
-    <row r="600" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:20">
       <c r="A600" s="3">
         <v>43370</v>
       </c>
@@ -42579,7 +42579,7 @@
         <v>12449</v>
       </c>
     </row>
-    <row r="601" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:20">
       <c r="A601" s="3">
         <v>43371</v>
       </c>
@@ -42651,7 +42651,7 @@
         <v>14037</v>
       </c>
     </row>
-    <row r="602" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:20">
       <c r="A602" s="3">
         <v>43372</v>
       </c>
@@ -42720,7 +42720,7 @@
         <v>12881</v>
       </c>
     </row>
-    <row r="603" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:20">
       <c r="A603" s="3">
         <v>43373</v>
       </c>
@@ -42789,7 +42789,7 @@
         <v>12776</v>
       </c>
     </row>
-    <row r="604" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:20">
       <c r="A604" s="3">
         <v>43374</v>
       </c>
@@ -42858,7 +42858,7 @@
         <v>10946</v>
       </c>
     </row>
-    <row r="605" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:20">
       <c r="A605" s="3">
         <v>43375</v>
       </c>
@@ -42927,7 +42927,7 @@
         <v>10069</v>
       </c>
     </row>
-    <row r="606" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:20">
       <c r="A606" s="3">
         <v>43376</v>
       </c>
@@ -42996,7 +42996,7 @@
         <v>8748</v>
       </c>
     </row>
-    <row r="607" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:20">
       <c r="A607" s="3">
         <v>43377</v>
       </c>
@@ -43068,7 +43068,7 @@
         <v>11535</v>
       </c>
     </row>
-    <row r="608" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:20">
       <c r="A608" s="3">
         <v>43378</v>
       </c>
@@ -43137,7 +43137,7 @@
         <v>9277</v>
       </c>
     </row>
-    <row r="609" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:20">
       <c r="A609" s="3">
         <v>43379</v>
       </c>
@@ -43209,7 +43209,7 @@
         <v>7885</v>
       </c>
     </row>
-    <row r="610" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:20">
       <c r="A610" s="3">
         <v>43380</v>
       </c>
@@ -43278,7 +43278,7 @@
         <v>7142</v>
       </c>
     </row>
-    <row r="611" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:20">
       <c r="A611" s="3">
         <v>43381</v>
       </c>
@@ -43347,7 +43347,7 @@
         <v>10616</v>
       </c>
     </row>
-    <row r="612" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:20">
       <c r="A612" s="3">
         <v>43382</v>
       </c>
@@ -43416,7 +43416,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="613" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:20">
       <c r="A613" s="3">
         <v>43383</v>
       </c>
@@ -43485,7 +43485,7 @@
         <v>8579</v>
       </c>
     </row>
-    <row r="614" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:20">
       <c r="A614" s="3">
         <v>43384</v>
       </c>
@@ -43554,7 +43554,7 @@
         <v>10699</v>
       </c>
     </row>
-    <row r="615" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:20">
       <c r="A615" s="3">
         <v>43385</v>
       </c>
@@ -43623,7 +43623,7 @@
         <v>9726</v>
       </c>
     </row>
-    <row r="616" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:20">
       <c r="A616" s="3">
         <v>43386</v>
       </c>
@@ -43692,7 +43692,7 @@
         <v>8805</v>
       </c>
     </row>
-    <row r="617" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:20">
       <c r="A617" s="3">
         <v>43387</v>
       </c>
@@ -43761,7 +43761,7 @@
         <v>10467</v>
       </c>
     </row>
-    <row r="618" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:20">
       <c r="A618" s="3">
         <v>43388</v>
       </c>
@@ -43830,7 +43830,7 @@
         <v>13557</v>
       </c>
     </row>
-    <row r="619" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:20">
       <c r="A619" s="3">
         <v>43389</v>
       </c>
@@ -43899,7 +43899,7 @@
         <v>6926</v>
       </c>
     </row>
-    <row r="620" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:20">
       <c r="A620" s="3">
         <v>43390</v>
       </c>
@@ -43968,7 +43968,7 @@
         <v>12081</v>
       </c>
     </row>
-    <row r="621" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:20">
       <c r="A621" s="3">
         <v>43391</v>
       </c>
@@ -44037,7 +44037,7 @@
         <v>9937</v>
       </c>
     </row>
-    <row r="622" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:20">
       <c r="A622" s="3">
         <v>43392</v>
       </c>
@@ -44109,7 +44109,7 @@
         <v>13120</v>
       </c>
     </row>
-    <row r="623" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:20">
       <c r="A623" s="3">
         <v>43393</v>
       </c>
@@ -44181,7 +44181,7 @@
         <v>11118</v>
       </c>
     </row>
-    <row r="624" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:20">
       <c r="A624" s="3">
         <v>43394</v>
       </c>
@@ -44250,7 +44250,7 @@
         <v>5579</v>
       </c>
     </row>
-    <row r="625" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:20">
       <c r="A625" s="3">
         <v>43395</v>
       </c>
@@ -44319,7 +44319,7 @@
         <v>11026</v>
       </c>
     </row>
-    <row r="626" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:20">
       <c r="A626" s="3">
         <v>43396</v>
       </c>
@@ -44388,7 +44388,7 @@
         <v>9952</v>
       </c>
     </row>
-    <row r="627" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:20">
       <c r="A627" s="3">
         <v>43397</v>
       </c>
@@ -44457,7 +44457,7 @@
         <v>12119</v>
       </c>
     </row>
-    <row r="628" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:20">
       <c r="A628" s="3">
         <v>43398</v>
       </c>
@@ -44529,7 +44529,7 @@
         <v>6285</v>
       </c>
     </row>
-    <row r="629" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:20">
       <c r="A629" s="3">
         <v>43399</v>
       </c>
@@ -44598,7 +44598,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="630" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:20">
       <c r="A630" s="3">
         <v>43400</v>
       </c>
@@ -44667,7 +44667,7 @@
         <v>7986</v>
       </c>
     </row>
-    <row r="631" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:20">
       <c r="A631" s="3">
         <v>43401</v>
       </c>
@@ -44736,7 +44736,7 @@
         <v>8835</v>
       </c>
     </row>
-    <row r="632" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:20">
       <c r="A632" s="3">
         <v>43402</v>
       </c>
@@ -44805,7 +44805,7 @@
         <v>9118</v>
       </c>
     </row>
-    <row r="633" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:20">
       <c r="A633" s="3">
         <v>43403</v>
       </c>
@@ -44874,7 +44874,7 @@
         <v>9755</v>
       </c>
     </row>
-    <row r="634" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:20">
       <c r="A634" s="3">
         <v>43404</v>
       </c>
@@ -44943,7 +44943,7 @@
         <v>9408</v>
       </c>
     </row>
-    <row r="635" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:20">
       <c r="A635" s="3">
         <v>43405</v>
       </c>
@@ -45012,7 +45012,7 @@
         <v>8949</v>
       </c>
     </row>
-    <row r="636" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:20">
       <c r="A636" s="3">
         <v>43406</v>
       </c>
@@ -45081,7 +45081,7 @@
         <v>13440</v>
       </c>
     </row>
-    <row r="637" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:20">
       <c r="A637" s="3">
         <v>43407</v>
       </c>
@@ -45150,7 +45150,7 @@
         <v>11961</v>
       </c>
     </row>
-    <row r="638" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:20">
       <c r="A638" s="3">
         <v>43408</v>
       </c>
@@ -45219,7 +45219,7 @@
         <v>5961</v>
       </c>
     </row>
-    <row r="639" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:20">
       <c r="A639" s="3">
         <v>43409</v>
       </c>
@@ -45288,7 +45288,7 @@
         <v>13015</v>
       </c>
     </row>
-    <row r="640" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:20">
       <c r="A640" s="3">
         <v>43410</v>
       </c>
@@ -45357,7 +45357,7 @@
         <v>8131</v>
       </c>
     </row>
-    <row r="641" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:20">
       <c r="A641" s="3">
         <v>43411</v>
       </c>
@@ -45426,7 +45426,7 @@
         <v>14312</v>
       </c>
     </row>
-    <row r="642" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:20">
       <c r="A642" s="3">
         <v>43412</v>
       </c>
@@ -45498,7 +45498,7 @@
         <v>12153</v>
       </c>
     </row>
-    <row r="643" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:20">
       <c r="A643" s="3">
         <v>43413</v>
       </c>
@@ -45567,7 +45567,7 @@
         <v>8628</v>
       </c>
     </row>
-    <row r="644" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:20">
       <c r="A644" s="3">
         <v>43414</v>
       </c>
@@ -45639,7 +45639,7 @@
         <v>4352</v>
       </c>
     </row>
-    <row r="645" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:20">
       <c r="A645" s="3">
         <v>43415</v>
       </c>
@@ -45708,7 +45708,7 @@
         <v>6029</v>
       </c>
     </row>
-    <row r="646" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:20">
       <c r="A646" s="3">
         <v>43416</v>
       </c>
@@ -45777,7 +45777,7 @@
         <v>10333</v>
       </c>
     </row>
-    <row r="647" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:20">
       <c r="A647" s="3">
         <v>43417</v>
       </c>
@@ -45846,7 +45846,7 @@
         <v>13412</v>
       </c>
     </row>
-    <row r="648" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:20">
       <c r="A648" s="3">
         <v>43418</v>
       </c>
@@ -45915,7 +45915,7 @@
         <v>13638</v>
       </c>
     </row>
-    <row r="649" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:20">
       <c r="A649" s="3">
         <v>43419</v>
       </c>
@@ -45984,7 +45984,7 @@
         <v>8138</v>
       </c>
     </row>
-    <row r="650" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:20">
       <c r="A650" s="3">
         <v>43420</v>
       </c>
@@ -46053,7 +46053,7 @@
         <v>6916</v>
       </c>
     </row>
-    <row r="651" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:20">
       <c r="A651" s="3">
         <v>43421</v>
       </c>
@@ -46122,7 +46122,7 @@
         <v>8541</v>
       </c>
     </row>
-    <row r="652" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:20">
       <c r="A652" s="3">
         <v>43422</v>
       </c>
@@ -46188,7 +46188,7 @@
         <v>10296</v>
       </c>
     </row>
-    <row r="653" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:20">
       <c r="A653" s="3">
         <v>43423</v>
       </c>
@@ -46254,7 +46254,7 @@
         <v>11279</v>
       </c>
     </row>
-    <row r="654" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:20">
       <c r="A654" s="3">
         <v>43424</v>
       </c>
@@ -46326,7 +46326,7 @@
         <v>8174</v>
       </c>
     </row>
-    <row r="655" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:20">
       <c r="A655" s="3">
         <v>43425</v>
       </c>
@@ -46395,7 +46395,7 @@
         <v>8817</v>
       </c>
     </row>
-    <row r="656" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:20">
       <c r="A656" s="3">
         <v>43426</v>
       </c>
@@ -46467,7 +46467,7 @@
         <v>7039</v>
       </c>
     </row>
-    <row r="657" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:20">
       <c r="A657" s="3">
         <v>43427</v>
       </c>
@@ -46539,7 +46539,7 @@
         <v>7470</v>
       </c>
     </row>
-    <row r="658" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:20">
       <c r="A658" s="3">
         <v>43428</v>
       </c>
@@ -46608,7 +46608,7 @@
         <v>5462</v>
       </c>
     </row>
-    <row r="659" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:20">
       <c r="A659" s="3">
         <v>43429</v>
       </c>
@@ -46677,7 +46677,7 @@
         <v>8173</v>
       </c>
     </row>
-    <row r="660" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:20">
       <c r="A660" s="3">
         <v>43430</v>
       </c>
@@ -46749,7 +46749,7 @@
         <v>10259</v>
       </c>
     </row>
-    <row r="661" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:20">
       <c r="A661" s="3">
         <v>43431</v>
       </c>
@@ -46818,7 +46818,7 @@
         <v>8214</v>
       </c>
     </row>
-    <row r="662" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:20">
       <c r="A662" s="3">
         <v>43432</v>
       </c>
@@ -46887,7 +46887,7 @@
         <v>10070</v>
       </c>
     </row>
-    <row r="663" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:20">
       <c r="A663" s="3">
         <v>43433</v>
       </c>
@@ -46956,7 +46956,7 @@
         <v>9016</v>
       </c>
     </row>
-    <row r="664" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:20">
       <c r="A664" s="3">
         <v>43434</v>
       </c>
@@ -47025,7 +47025,7 @@
         <v>14050</v>
       </c>
     </row>
-    <row r="665" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:20">
       <c r="A665" s="3">
         <v>43435</v>
       </c>
@@ -47094,7 +47094,7 @@
         <v>11171</v>
       </c>
     </row>
-    <row r="666" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:20">
       <c r="A666" s="3">
         <v>43436</v>
       </c>
@@ -47163,7 +47163,7 @@
         <v>6615</v>
       </c>
     </row>
-    <row r="667" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:20">
       <c r="A667" s="3">
         <v>43437</v>
       </c>
@@ -47232,7 +47232,7 @@
         <v>12243</v>
       </c>
     </row>
-    <row r="668" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:20">
       <c r="A668" s="3">
         <v>43438</v>
       </c>
@@ -47301,7 +47301,7 @@
         <v>6120</v>
       </c>
     </row>
-    <row r="669" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:20">
       <c r="A669" s="3">
         <v>43439</v>
       </c>
@@ -47370,7 +47370,7 @@
         <v>9861</v>
       </c>
     </row>
-    <row r="670" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:20">
       <c r="A670" s="3">
         <v>43440</v>
       </c>
@@ -47439,7 +47439,7 @@
         <v>13032</v>
       </c>
     </row>
-    <row r="671" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:20">
       <c r="A671" s="3">
         <v>43441</v>
       </c>
@@ -47508,7 +47508,7 @@
         <v>9715</v>
       </c>
     </row>
-    <row r="672" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:20">
       <c r="A672" s="3">
         <v>43442</v>
       </c>
@@ -47577,7 +47577,7 @@
         <v>9984</v>
       </c>
     </row>
-    <row r="673" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:20">
       <c r="A673" s="3">
         <v>43443</v>
       </c>
@@ -47646,7 +47646,7 @@
         <v>6515</v>
       </c>
     </row>
-    <row r="674" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:20">
       <c r="A674" s="3">
         <v>43444</v>
       </c>
@@ -47718,7 +47718,7 @@
         <v>9821</v>
       </c>
     </row>
-    <row r="675" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:20">
       <c r="A675" s="3">
         <v>43445</v>
       </c>
@@ -47790,7 +47790,7 @@
         <v>9328</v>
       </c>
     </row>
-    <row r="676" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:20">
       <c r="A676" s="3">
         <v>43446</v>
       </c>
@@ -47859,7 +47859,7 @@
         <v>9440</v>
       </c>
     </row>
-    <row r="677" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:20">
       <c r="A677" s="3">
         <v>43447</v>
       </c>
@@ -47931,7 +47931,7 @@
         <v>7801</v>
       </c>
     </row>
-    <row r="678" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:20">
       <c r="A678" s="3">
         <v>43448</v>
       </c>
@@ -48000,7 +48000,7 @@
         <v>8234</v>
       </c>
     </row>
-    <row r="679" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:20">
       <c r="A679" s="3">
         <v>43449</v>
       </c>
@@ -48069,7 +48069,7 @@
         <v>10633</v>
       </c>
     </row>
-    <row r="680" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:20">
       <c r="A680" s="3">
         <v>43450</v>
       </c>
@@ -48138,7 +48138,7 @@
         <v>5497</v>
       </c>
     </row>
-    <row r="681" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:20">
       <c r="A681" s="3">
         <v>43451</v>
       </c>
@@ -48207,7 +48207,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="682" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:20">
       <c r="A682" s="3">
         <v>43452</v>
       </c>
@@ -48279,7 +48279,7 @@
         <v>8313</v>
       </c>
     </row>
-    <row r="683" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:20">
       <c r="A683" s="3">
         <v>43453</v>
       </c>
@@ -48348,7 +48348,7 @@
         <v>7017</v>
       </c>
     </row>
-    <row r="684" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:20">
       <c r="A684" s="3">
         <v>43454</v>
       </c>
@@ -48420,7 +48420,7 @@
         <v>6817</v>
       </c>
     </row>
-    <row r="685" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:20">
       <c r="A685" s="3">
         <v>43455</v>
       </c>
@@ -48489,7 +48489,7 @@
         <v>8279</v>
       </c>
     </row>
-    <row r="686" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:20">
       <c r="A686" s="3">
         <v>43456</v>
       </c>
@@ -48558,7 +48558,7 @@
         <v>7245</v>
       </c>
     </row>
-    <row r="687" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:20">
       <c r="A687" s="3">
         <v>43457</v>
       </c>
@@ -48627,7 +48627,7 @@
         <v>13255</v>
       </c>
     </row>
-    <row r="688" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:20">
       <c r="A688" s="3">
         <v>43458</v>
       </c>
@@ -48699,7 +48699,7 @@
         <v>7824</v>
       </c>
     </row>
-    <row r="689" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:20">
       <c r="A689" s="3">
         <v>43459</v>
       </c>
@@ -48768,7 +48768,7 @@
         <v>6216</v>
       </c>
     </row>
-    <row r="690" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:20">
       <c r="A690" s="3">
         <v>43460</v>
       </c>
@@ -48837,7 +48837,7 @@
         <v>6649</v>
       </c>
     </row>
-    <row r="691" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:20">
       <c r="A691" s="3">
         <v>43461</v>
       </c>
@@ -48909,7 +48909,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="692" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:20">
       <c r="A692" s="3">
         <v>43462</v>
       </c>
@@ -48981,7 +48981,7 @@
         <v>7391</v>
       </c>
     </row>
-    <row r="693" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:20">
       <c r="A693" s="3">
         <v>43463</v>
       </c>
@@ -49050,7 +49050,7 @@
         <v>6647</v>
       </c>
     </row>
-    <row r="694" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:20">
       <c r="A694" s="3">
         <v>43464</v>
       </c>
@@ -49122,7 +49122,7 @@
         <v>8655</v>
       </c>
     </row>
-    <row r="695" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:20">
       <c r="A695" s="3">
         <v>43465</v>
       </c>
@@ -49194,7 +49194,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="696" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:20">
       <c r="A696" s="3">
         <v>43466</v>
       </c>
@@ -49266,7 +49266,7 @@
         <v>4348</v>
       </c>
     </row>
-    <row r="697" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:20">
       <c r="A697" s="3">
         <v>43467</v>
       </c>
@@ -49335,7 +49335,7 @@
         <v>9350</v>
       </c>
     </row>
-    <row r="698" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:20">
       <c r="A698" s="3">
         <v>43468</v>
       </c>
@@ -49404,7 +49404,7 @@
         <v>7656</v>
       </c>
     </row>
-    <row r="699" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:20">
       <c r="A699" s="3">
         <v>43469</v>
       </c>
@@ -49473,7 +49473,7 @@
         <v>4709</v>
       </c>
     </row>
-    <row r="700" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:20">
       <c r="A700" s="3">
         <v>43470</v>
       </c>
@@ -49545,7 +49545,7 @@
         <v>20934</v>
       </c>
     </row>
-    <row r="701" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:20">
       <c r="A701" s="3">
         <v>43471</v>
       </c>
@@ -49614,7 +49614,7 @@
         <v>3212</v>
       </c>
     </row>
-    <row r="702" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:20">
       <c r="A702" s="3">
         <v>43472</v>
       </c>
@@ -49686,7 +49686,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="703" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:20">
       <c r="A703" s="3">
         <v>43473</v>
       </c>
@@ -49755,7 +49755,7 @@
         <v>7686</v>
       </c>
     </row>
-    <row r="704" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:20">
       <c r="A704" s="3">
         <v>43474</v>
       </c>
@@ -49827,7 +49827,7 @@
         <v>9369</v>
       </c>
     </row>
-    <row r="705" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:20">
       <c r="A705" s="3">
         <v>43475</v>
       </c>
@@ -49899,7 +49899,7 @@
         <v>7408</v>
       </c>
     </row>
-    <row r="706" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:20">
       <c r="A706" s="3">
         <v>43476</v>
       </c>
@@ -49968,7 +49968,7 @@
         <v>10893</v>
       </c>
     </row>
-    <row r="707" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:20">
       <c r="A707" s="3">
         <v>43477</v>
       </c>
@@ -50040,7 +50040,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="708" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:20">
       <c r="A708" s="3">
         <v>43478</v>
       </c>
@@ -50109,7 +50109,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="709" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:20">
       <c r="A709" s="3">
         <v>43479</v>
       </c>
@@ -50178,7 +50178,7 @@
         <v>11888</v>
       </c>
     </row>
-    <row r="710" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:20">
       <c r="A710" s="3">
         <v>43480</v>
       </c>
@@ -50247,7 +50247,7 @@
         <v>13173</v>
       </c>
     </row>
-    <row r="711" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:20">
       <c r="A711" s="3">
         <v>43481</v>
       </c>
@@ -50316,7 +50316,7 @@
         <v>10826</v>
       </c>
     </row>
-    <row r="712" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:20">
       <c r="A712" s="3">
         <v>43482</v>
       </c>
@@ -50388,7 +50388,7 @@
         <v>9362</v>
       </c>
     </row>
-    <row r="713" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:20">
       <c r="A713" s="3">
         <v>43483</v>
       </c>
@@ -50460,7 +50460,7 @@
         <v>6393</v>
       </c>
     </row>
-    <row r="714" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:20">
       <c r="A714" s="3">
         <v>43484</v>
       </c>
@@ -50541,19 +50541,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="11" max="11" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
         <v>30</v>
       </c>
@@ -50585,7 +50585,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -50606,20 +50606,20 @@
         <v>0.35008250825082504</v>
       </c>
       <c r="F2">
-        <f>SUMIFS(Sleep!$M:$M,Sleep!$B:$B,$A2)</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
         <f>SUMIFS(Sleep!$N:$N,Sleep!$B:$B,$A2)</f>
         <v>4</v>
       </c>
+      <c r="G2">
+        <f>SUMIFS(Sleep!$O:$O,Sleep!$B:$B,$A2)</f>
+        <v>1</v>
+      </c>
       <c r="H2">
-        <f>SUMIFS(Sleep!$O:$O,Sleep!$B:$B,$A2)</f>
-        <v>1</v>
+        <f>SUMIFS(Sleep!$P:$P,Sleep!$B:$B,$A2)</f>
+        <v>16</v>
       </c>
       <c r="I2" s="8">
         <f t="shared" ref="I2:I8" si="0">IFERROR(SUM($F2:$H2)*100/SUM($B2:$C2),0)</f>
-        <v>4.9019607843137258</v>
+        <v>20.588235294117649</v>
       </c>
       <c r="J2" s="8">
         <f>IFERROR(AVERAGEIFS(Sleep!$S:$S,Sleep!$B:$B,$A2),0)</f>
@@ -50630,7 +50630,7 @@
         <v>8522.712871287129</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -50651,20 +50651,20 @@
         <v>0.35459295929592988</v>
       </c>
       <c r="F3">
-        <f>SUMIFS(Sleep!$M:$M,Sleep!$B:$B,$A3)</f>
-        <v>0</v>
-      </c>
-      <c r="G3">
         <f>SUMIFS(Sleep!$N:$N,Sleep!$B:$B,$A3)</f>
         <v>3</v>
       </c>
+      <c r="G3">
+        <f>SUMIFS(Sleep!$O:$O,Sleep!$B:$B,$A3)</f>
+        <v>1</v>
+      </c>
       <c r="H3">
-        <f>SUMIFS(Sleep!$O:$O,Sleep!$B:$B,$A3)</f>
-        <v>1</v>
+        <f>SUMIFS(Sleep!$P:$P,Sleep!$B:$B,$A3)</f>
+        <v>24</v>
       </c>
       <c r="I3" s="8">
         <f t="shared" si="0"/>
-        <v>3.9215686274509802</v>
+        <v>27.450980392156861</v>
       </c>
       <c r="J3" s="8">
         <f>IFERROR(AVERAGEIFS(Sleep!$S:$S,Sleep!$B:$B,$A3),0)</f>
@@ -50675,7 +50675,7 @@
         <v>7301.1089108910892</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -50696,20 +50696,20 @@
         <v>0.35442439862542957</v>
       </c>
       <c r="F4">
-        <f>SUMIFS(Sleep!$M:$M,Sleep!$B:$B,$A4)</f>
-        <v>0</v>
-      </c>
-      <c r="G4">
         <f>SUMIFS(Sleep!$N:$N,Sleep!$B:$B,$A4)</f>
         <v>5</v>
       </c>
+      <c r="G4">
+        <f>SUMIFS(Sleep!$O:$O,Sleep!$B:$B,$A4)</f>
+        <v>1</v>
+      </c>
       <c r="H4">
-        <f>SUMIFS(Sleep!$O:$O,Sleep!$B:$B,$A4)</f>
-        <v>1</v>
+        <f>SUMIFS(Sleep!$P:$P,Sleep!$B:$B,$A4)</f>
+        <v>22</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" si="0"/>
-        <v>5.882352941176471</v>
+        <v>27.450980392156861</v>
       </c>
       <c r="J4" s="8">
         <f>IFERROR(AVERAGEIFS(Sleep!$S:$S,Sleep!$B:$B,$A4),0)</f>
@@ -50720,7 +50720,7 @@
         <v>8315.0618556701029</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -50741,20 +50741,20 @@
         <v>0.34077777777777762</v>
       </c>
       <c r="F5">
-        <f>SUMIFS(Sleep!$M:$M,Sleep!$B:$B,$A5)</f>
-        <v>0</v>
-      </c>
-      <c r="G5">
         <f>SUMIFS(Sleep!$N:$N,Sleep!$B:$B,$A5)</f>
         <v>11</v>
       </c>
-      <c r="H5">
+      <c r="G5">
         <f>SUMIFS(Sleep!$O:$O,Sleep!$B:$B,$A5)</f>
         <v>2</v>
       </c>
+      <c r="H5">
+        <f>SUMIFS(Sleep!$P:$P,Sleep!$B:$B,$A5)</f>
+        <v>21</v>
+      </c>
       <c r="I5" s="8">
         <f t="shared" si="0"/>
-        <v>12.745098039215685</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="J5" s="8">
         <f>IFERROR(AVERAGEIFS(Sleep!$S:$S,Sleep!$B:$B,$A5),0)</f>
@@ -50765,7 +50765,7 @@
         <v>8101.51</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -50786,20 +50786,20 @@
         <v>0.35729166666666662</v>
       </c>
       <c r="F6">
-        <f>SUMIFS(Sleep!$M:$M,Sleep!$B:$B,$A6)</f>
-        <v>0</v>
-      </c>
-      <c r="G6">
         <f>SUMIFS(Sleep!$N:$N,Sleep!$B:$B,$A6)</f>
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="G6">
         <f>SUMIFS(Sleep!$O:$O,Sleep!$B:$B,$A6)</f>
         <v>2</v>
       </c>
+      <c r="H6">
+        <f>SUMIFS(Sleep!$P:$P,Sleep!$B:$B,$A6)</f>
+        <v>22</v>
+      </c>
       <c r="I6" s="8">
         <f t="shared" si="0"/>
-        <v>3.9215686274509802</v>
+        <v>25.490196078431371</v>
       </c>
       <c r="J6" s="8">
         <f>IFERROR(AVERAGEIFS(Sleep!$S:$S,Sleep!$B:$B,$A6),0)</f>
@@ -50810,7 +50810,7 @@
         <v>9283.4270833333339</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -50831,20 +50831,20 @@
         <v>0.36471797052154187</v>
       </c>
       <c r="F7">
-        <f>SUMIFS(Sleep!$M:$M,Sleep!$B:$B,$A7)</f>
-        <v>0</v>
-      </c>
-      <c r="G7">
         <f>SUMIFS(Sleep!$N:$N,Sleep!$B:$B,$A7)</f>
         <v>7</v>
       </c>
-      <c r="H7">
+      <c r="G7">
         <f>SUMIFS(Sleep!$O:$O,Sleep!$B:$B,$A7)</f>
         <v>3</v>
       </c>
+      <c r="H7">
+        <f>SUMIFS(Sleep!$P:$P,Sleep!$B:$B,$A7)</f>
+        <v>29</v>
+      </c>
       <c r="I7" s="8">
         <f t="shared" si="0"/>
-        <v>9.8039215686274517</v>
+        <v>38.235294117647058</v>
       </c>
       <c r="J7" s="8">
         <f>IFERROR(AVERAGEIFS(Sleep!$S:$S,Sleep!$B:$B,$A7),0)</f>
@@ -50855,7 +50855,7 @@
         <v>7082.8163265306121</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -50876,20 +50876,20 @@
         <v>0.35555555555555551</v>
       </c>
       <c r="F8">
-        <f>SUMIFS(Sleep!$M:$M,Sleep!$B:$B,$A8)</f>
-        <v>0</v>
+        <f>SUMIFS(Sleep!$N:$N,Sleep!$B:$B,$A8)</f>
+        <v>1</v>
       </c>
       <c r="G8">
-        <f>SUMIFS(Sleep!$N:$N,Sleep!$B:$B,$A8)</f>
+        <f>SUMIFS(Sleep!$O:$O,Sleep!$B:$B,$A8)</f>
         <v>1</v>
       </c>
       <c r="H8">
-        <f>SUMIFS(Sleep!$O:$O,Sleep!$B:$B,$A8)</f>
-        <v>1</v>
+        <f>SUMIFS(Sleep!$P:$P,Sleep!$B:$B,$A8)</f>
+        <v>37</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" si="0"/>
-        <v>1.9801980198019802</v>
+        <v>38.613861386138616</v>
       </c>
       <c r="J8" s="8">
         <f>IFERROR(AVERAGEIFS(Sleep!$S:$S,Sleep!$B:$B,$A8),0)</f>
@@ -50916,12 +50916,12 @@
       <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="12" max="12" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="C1" t="s">
         <v>30</v>
       </c>
@@ -50953,7 +50953,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -51001,7 +51001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -51049,7 +51049,7 @@
         <v>9008.608695652174</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -51097,7 +51097,7 @@
         <v>8870.636363636364</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -51145,7 +51145,7 @@
         <v>8927.7666666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -51193,7 +51193,7 @@
         <v>5894</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -51241,7 +51241,7 @@
         <v>4973.4666666666662</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -51289,7 +51289,7 @@
         <v>6144.4193548387093</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -51337,7 +51337,7 @@
         <v>8932.0689655172409</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -51385,7 +51385,7 @@
         <v>10431.766666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -51433,7 +51433,7 @@
         <v>8868.1071428571431</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -51481,7 +51481,7 @@
         <v>7235.7666666666664</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -51529,7 +51529,7 @@
         <v>7746.5925925925922</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -51577,7 +51577,7 @@
         <v>6767.4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -51625,7 +51625,7 @@
         <v>12071.392857142857</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -51673,7 +51673,7 @@
         <v>8394.1935483870966</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -51721,7 +51721,7 @@
         <v>9755</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -51769,7 +51769,7 @@
         <v>6863.677419354839</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -51817,7 +51817,7 @@
         <v>6081.3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -51865,7 +51865,7 @@
         <v>5943.166666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -51913,7 +51913,7 @@
         <v>7894.9</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -51961,7 +51961,7 @@
         <v>9391.6</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -52009,7 +52009,7 @@
         <v>9557.677419354839</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -52057,7 +52057,7 @@
         <v>9540.9333333333325</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -52105,7 +52105,7 @@
         <v>8088.1935483870966</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>40</v>
       </c>
